--- a/Testing/Template Casos de Prueba - Grupo 1.xlsx
+++ b/Testing/Template Casos de Prueba - Grupo 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Proyecto final\grupo-01\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8022979-BFEE-45AA-87E7-E727623CE9D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF2F268-65CC-49C5-BEFB-41A4A81871FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="4005" windowWidth="21600" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>Id</t>
   </si>
@@ -258,6 +258,45 @@
   <si>
     <t>La pagina se adapta adecuadamente a los diferentes tipos de tamaños</t>
   </si>
+  <si>
+    <t>CP-1</t>
+  </si>
+  <si>
+    <t>CP-2</t>
+  </si>
+  <si>
+    <t>CP-3</t>
+  </si>
+  <si>
+    <t>CP-4</t>
+  </si>
+  <si>
+    <t>CP-5</t>
+  </si>
+  <si>
+    <t>CP-6</t>
+  </si>
+  <si>
+    <t>CP-7</t>
+  </si>
+  <si>
+    <t>CP-8</t>
+  </si>
+  <si>
+    <t>CP-9</t>
+  </si>
+  <si>
+    <t>CP-10</t>
+  </si>
+  <si>
+    <t>CP-11</t>
+  </si>
+  <si>
+    <t>CP-12</t>
+  </si>
+  <si>
+    <t>CP-13</t>
+  </si>
 </sst>
 </file>
 
@@ -406,9 +445,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -418,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,8 +677,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -648,30 +687,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1"/>
@@ -693,19 +732,19 @@
     </row>
     <row r="2" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -724,8 +763,8 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
+      <c r="A3" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -770,8 +809,8 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
+      <c r="A4" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
@@ -816,8 +855,8 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
+      <c r="A5" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>24</v>
@@ -862,8 +901,8 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
+      <c r="A6" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
@@ -908,8 +947,8 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
+      <c r="A7" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
@@ -954,8 +993,8 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
+      <c r="A8" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>39</v>
@@ -1000,8 +1039,8 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
+      <c r="A9" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>43</v>
@@ -1046,8 +1085,8 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>8</v>
+      <c r="A10" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>48</v>
@@ -1092,8 +1131,8 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
+      <c r="A11" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>54</v>
@@ -1138,8 +1177,8 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
+      <c r="A12" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>59</v>
@@ -1184,8 +1223,8 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>11</v>
+      <c r="A13" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>64</v>
@@ -1230,8 +1269,8 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
+      <c r="A14" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
@@ -1276,8 +1315,8 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>13</v>
+      <c r="A15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>74</v>
@@ -28903,329 +28942,89 @@
     </row>
   </sheetData>
   <mergeCells count="430">
-    <mergeCell ref="E329:F329"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="E331:F331"/>
-    <mergeCell ref="E332:F332"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="E334:F334"/>
-    <mergeCell ref="E335:F335"/>
-    <mergeCell ref="E336:F336"/>
-    <mergeCell ref="E320:F320"/>
-    <mergeCell ref="E321:F321"/>
-    <mergeCell ref="E322:F322"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="E324:F324"/>
-    <mergeCell ref="E325:F325"/>
-    <mergeCell ref="E326:F326"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="E328:F328"/>
-    <mergeCell ref="E311:F311"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="E313:F313"/>
-    <mergeCell ref="E314:F314"/>
-    <mergeCell ref="E315:F315"/>
-    <mergeCell ref="E316:F316"/>
-    <mergeCell ref="E317:F317"/>
-    <mergeCell ref="E318:F318"/>
-    <mergeCell ref="E319:F319"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="E304:F304"/>
-    <mergeCell ref="E305:F305"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="E307:F307"/>
-    <mergeCell ref="E308:F308"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="E310:F310"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="E296:F296"/>
-    <mergeCell ref="E297:F297"/>
-    <mergeCell ref="E298:F298"/>
-    <mergeCell ref="E299:F299"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="E301:F301"/>
-    <mergeCell ref="E284:F284"/>
-    <mergeCell ref="E285:F285"/>
-    <mergeCell ref="E286:F286"/>
-    <mergeCell ref="E287:F287"/>
-    <mergeCell ref="E288:F288"/>
-    <mergeCell ref="E289:F289"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="E291:F291"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="E275:F275"/>
-    <mergeCell ref="E276:F276"/>
-    <mergeCell ref="E277:F277"/>
-    <mergeCell ref="E278:F278"/>
-    <mergeCell ref="E279:F279"/>
-    <mergeCell ref="E280:F280"/>
-    <mergeCell ref="E281:F281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="E283:F283"/>
-    <mergeCell ref="E266:F266"/>
-    <mergeCell ref="E267:F267"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="E270:F270"/>
-    <mergeCell ref="E271:F271"/>
-    <mergeCell ref="E272:F272"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="E274:F274"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="E262:F262"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="E265:F265"/>
-    <mergeCell ref="E248:F248"/>
-    <mergeCell ref="E249:F249"/>
-    <mergeCell ref="E250:F250"/>
-    <mergeCell ref="E251:F251"/>
-    <mergeCell ref="E252:F252"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="E240:F240"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="E242:F242"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="E245:F245"/>
-    <mergeCell ref="E246:F246"/>
-    <mergeCell ref="E247:F247"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="E237:F237"/>
-    <mergeCell ref="E238:F238"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E386:F386"/>
+    <mergeCell ref="E387:F387"/>
+    <mergeCell ref="E388:F388"/>
+    <mergeCell ref="E389:F389"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="E391:F391"/>
+    <mergeCell ref="E392:F392"/>
+    <mergeCell ref="E393:F393"/>
+    <mergeCell ref="E394:F394"/>
+    <mergeCell ref="E395:F395"/>
+    <mergeCell ref="E396:F396"/>
+    <mergeCell ref="E397:F397"/>
+    <mergeCell ref="E398:F398"/>
+    <mergeCell ref="E399:F399"/>
+    <mergeCell ref="E400:F400"/>
+    <mergeCell ref="E401:F401"/>
+    <mergeCell ref="E402:F402"/>
+    <mergeCell ref="E403:F403"/>
+    <mergeCell ref="E404:F404"/>
+    <mergeCell ref="E405:F405"/>
+    <mergeCell ref="E406:F406"/>
+    <mergeCell ref="E407:F407"/>
+    <mergeCell ref="E408:F408"/>
+    <mergeCell ref="E409:F409"/>
+    <mergeCell ref="E410:F410"/>
+    <mergeCell ref="E411:F411"/>
+    <mergeCell ref="E412:F412"/>
+    <mergeCell ref="E413:F413"/>
+    <mergeCell ref="E421:F421"/>
+    <mergeCell ref="E422:F422"/>
+    <mergeCell ref="E423:F423"/>
+    <mergeCell ref="E414:F414"/>
+    <mergeCell ref="E415:F415"/>
+    <mergeCell ref="E416:F416"/>
+    <mergeCell ref="E417:F417"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E420:F420"/>
+    <mergeCell ref="E337:F337"/>
+    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="E339:F339"/>
+    <mergeCell ref="E340:F340"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="E347:F347"/>
+    <mergeCell ref="E348:F348"/>
+    <mergeCell ref="E349:F349"/>
+    <mergeCell ref="E350:F350"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="E352:F352"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="E354:F354"/>
+    <mergeCell ref="E355:F355"/>
+    <mergeCell ref="E356:F356"/>
+    <mergeCell ref="E357:F357"/>
+    <mergeCell ref="E358:F358"/>
+    <mergeCell ref="E359:F359"/>
+    <mergeCell ref="E360:F360"/>
+    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="E362:F362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="E364:F364"/>
+    <mergeCell ref="E365:F365"/>
+    <mergeCell ref="E366:F366"/>
+    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="E368:F368"/>
+    <mergeCell ref="E369:F369"/>
+    <mergeCell ref="E370:F370"/>
+    <mergeCell ref="E371:F371"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="E373:F373"/>
+    <mergeCell ref="E374:F374"/>
+    <mergeCell ref="E375:F375"/>
+    <mergeCell ref="E376:F376"/>
+    <mergeCell ref="E377:F377"/>
+    <mergeCell ref="E378:F378"/>
+    <mergeCell ref="E379:F379"/>
+    <mergeCell ref="E380:F380"/>
+    <mergeCell ref="E381:F381"/>
     <mergeCell ref="E382:F382"/>
     <mergeCell ref="E383:F383"/>
     <mergeCell ref="E384:F384"/>
@@ -29250,90 +29049,331 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E373:F373"/>
-    <mergeCell ref="E374:F374"/>
-    <mergeCell ref="E375:F375"/>
-    <mergeCell ref="E376:F376"/>
-    <mergeCell ref="E377:F377"/>
-    <mergeCell ref="E378:F378"/>
-    <mergeCell ref="E379:F379"/>
-    <mergeCell ref="E380:F380"/>
-    <mergeCell ref="E381:F381"/>
-    <mergeCell ref="E364:F364"/>
-    <mergeCell ref="E365:F365"/>
-    <mergeCell ref="E366:F366"/>
-    <mergeCell ref="E367:F367"/>
-    <mergeCell ref="E368:F368"/>
-    <mergeCell ref="E369:F369"/>
-    <mergeCell ref="E370:F370"/>
-    <mergeCell ref="E371:F371"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="E355:F355"/>
-    <mergeCell ref="E356:F356"/>
-    <mergeCell ref="E357:F357"/>
-    <mergeCell ref="E358:F358"/>
-    <mergeCell ref="E359:F359"/>
-    <mergeCell ref="E360:F360"/>
-    <mergeCell ref="E361:F361"/>
-    <mergeCell ref="E362:F362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="E346:F346"/>
-    <mergeCell ref="E347:F347"/>
-    <mergeCell ref="E348:F348"/>
-    <mergeCell ref="E349:F349"/>
-    <mergeCell ref="E350:F350"/>
-    <mergeCell ref="E351:F351"/>
-    <mergeCell ref="E352:F352"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="E354:F354"/>
-    <mergeCell ref="E337:F337"/>
-    <mergeCell ref="E338:F338"/>
-    <mergeCell ref="E339:F339"/>
-    <mergeCell ref="E340:F340"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="E344:F344"/>
-    <mergeCell ref="E345:F345"/>
-    <mergeCell ref="E413:F413"/>
-    <mergeCell ref="E421:F421"/>
-    <mergeCell ref="E422:F422"/>
-    <mergeCell ref="E423:F423"/>
-    <mergeCell ref="E414:F414"/>
-    <mergeCell ref="E415:F415"/>
-    <mergeCell ref="E416:F416"/>
-    <mergeCell ref="E417:F417"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E420:F420"/>
-    <mergeCell ref="E404:F404"/>
-    <mergeCell ref="E405:F405"/>
-    <mergeCell ref="E406:F406"/>
-    <mergeCell ref="E407:F407"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="E409:F409"/>
-    <mergeCell ref="E410:F410"/>
-    <mergeCell ref="E411:F411"/>
-    <mergeCell ref="E412:F412"/>
-    <mergeCell ref="E395:F395"/>
-    <mergeCell ref="E396:F396"/>
-    <mergeCell ref="E397:F397"/>
-    <mergeCell ref="E398:F398"/>
-    <mergeCell ref="E399:F399"/>
-    <mergeCell ref="E400:F400"/>
-    <mergeCell ref="E401:F401"/>
-    <mergeCell ref="E402:F402"/>
-    <mergeCell ref="E403:F403"/>
-    <mergeCell ref="E386:F386"/>
-    <mergeCell ref="E387:F387"/>
-    <mergeCell ref="E388:F388"/>
-    <mergeCell ref="E389:F389"/>
-    <mergeCell ref="E390:F390"/>
-    <mergeCell ref="E391:F391"/>
-    <mergeCell ref="E392:F392"/>
-    <mergeCell ref="E393:F393"/>
-    <mergeCell ref="E394:F394"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="E237:F237"/>
+    <mergeCell ref="E238:F238"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="E246:F246"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="E252:F252"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="E265:F265"/>
+    <mergeCell ref="E266:F266"/>
+    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="E270:F270"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="E272:F272"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="E274:F274"/>
+    <mergeCell ref="E275:F275"/>
+    <mergeCell ref="E276:F276"/>
+    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="E278:F278"/>
+    <mergeCell ref="E279:F279"/>
+    <mergeCell ref="E280:F280"/>
+    <mergeCell ref="E281:F281"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="E283:F283"/>
+    <mergeCell ref="E284:F284"/>
+    <mergeCell ref="E285:F285"/>
+    <mergeCell ref="E286:F286"/>
+    <mergeCell ref="E287:F287"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="E291:F291"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="E298:F298"/>
+    <mergeCell ref="E299:F299"/>
+    <mergeCell ref="E300:F300"/>
+    <mergeCell ref="E301:F301"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="E303:F303"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="E305:F305"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="E311:F311"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="E313:F313"/>
+    <mergeCell ref="E314:F314"/>
+    <mergeCell ref="E315:F315"/>
+    <mergeCell ref="E316:F316"/>
+    <mergeCell ref="E317:F317"/>
+    <mergeCell ref="E318:F318"/>
+    <mergeCell ref="E319:F319"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="E331:F331"/>
+    <mergeCell ref="E332:F332"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="E334:F334"/>
+    <mergeCell ref="E335:F335"/>
+    <mergeCell ref="E336:F336"/>
+    <mergeCell ref="E320:F320"/>
+    <mergeCell ref="E321:F321"/>
+    <mergeCell ref="E322:F322"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="E324:F324"/>
+    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="E326:F326"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="E328:F328"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/Template Casos de Prueba - Grupo 1.xlsx
+++ b/Testing/Template Casos de Prueba - Grupo 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Proyecto final\grupo-01\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workshop\TechDev\Bimestre4\grupo-01\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF2F268-65CC-49C5-BEFB-41A4A81871FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4628B3-58F3-4BFB-BA55-7BE4553F10A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4005" windowWidth="21600" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>El header contiene todas sus partes para que el usuario pueda ver</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Guido Oudin</t>
@@ -297,12 +294,243 @@
   <si>
     <t>CP-13</t>
   </si>
+  <si>
+    <t>CP-14</t>
+  </si>
+  <si>
+    <t>Gabriel Franke</t>
+  </si>
+  <si>
+    <t>CP-15</t>
+  </si>
+  <si>
+    <t>CP-16</t>
+  </si>
+  <si>
+    <t>CP-17</t>
+  </si>
+  <si>
+    <t>CP-18</t>
+  </si>
+  <si>
+    <t>CP-19</t>
+  </si>
+  <si>
+    <t>CP-20</t>
+  </si>
+  <si>
+    <t>CP-21</t>
+  </si>
+  <si>
+    <t>CP-22</t>
+  </si>
+  <si>
+    <t>Click en una categoria filtra las recomendaciones correctamente</t>
+  </si>
+  <si>
+    <t>Las cards de recomendaciones deben actualizarce y mostrarse solo las que correspoenden a la categoria seleccionada</t>
+  </si>
+  <si>
+    <t>Se renderizan las cards de la categoria clickeada</t>
+  </si>
+  <si>
+    <t>Las cards deberian ser elementos clickeables</t>
+  </si>
+  <si>
+    <t>Se filtran las recomendaciones por ciudad</t>
+  </si>
+  <si>
+    <t>Al seleccionar una ciudad y clickear en el boton buscar se renderizan recomendaciones basadas en la ciudad seleccionada</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>El componente deberia ser interactivo y funcional</t>
+  </si>
+  <si>
+    <t>1 - Entrar a la pagina home     2 - Click en una categoria     3 - Verificar que se re-renderizan las cards correspondientes</t>
+  </si>
+  <si>
+    <t>1 - Entrar a la pagina home     2 - Click en A donde vamos?    3 - Click en una ubicacion     4 - Click en el boton Buscar     5 - Verificar que se renderizan las cards correspondientes a la ciudad seleccionada</t>
+  </si>
+  <si>
+    <t>Se renderizan las cards de la ciudad al buscar</t>
+  </si>
+  <si>
+    <t>Al clickear en Ver mas se accede a la pagina del producto clickeado</t>
+  </si>
+  <si>
+    <t>El boton Ver mas debe ser clickeable</t>
+  </si>
+  <si>
+    <t>1 - Entrar a la pagina home     2 - Click en cualquier Ver mas     3 - Verificar que cambia la ubicacion en la barra de navegacion</t>
+  </si>
+  <si>
+    <t>La url cambia a /producto</t>
+  </si>
+  <si>
+    <t>Testear el redireccionamiento a la seccion producto</t>
+  </si>
+  <si>
+    <t>Se debe acceder a un producto</t>
+  </si>
+  <si>
+    <t>En la pagina de un producto deberian verse 5 imagenes, 1 grande y 4 medianas</t>
+  </si>
+  <si>
+    <t>En modo desktop se pueden visualizar las imagenes en un modal</t>
+  </si>
+  <si>
+    <t>Verificar el funcionamiento de la paginacion</t>
+  </si>
+  <si>
+    <t>Se visualizan correctamente las imagenes de un producto</t>
+  </si>
+  <si>
+    <t>1 - Entrar a la pagina home     2 - Clickear un Ver mas de una card     3 - Verificar que se renderizan las imagenes correctamente</t>
+  </si>
+  <si>
+    <t>Se ven todas las imagenes</t>
+  </si>
+  <si>
+    <t>En la pagina de un producto se debe poder acceder a una vista tipo modal con mas imagenes del producto</t>
+  </si>
+  <si>
+    <t>1 - Entrar a un producto     2 - Clickear el Ver mas de la galeria de imagenes    3 - Verificar que se abre un modal y se pueden ver las imagenes</t>
+  </si>
+  <si>
+    <t>Se abre un modal y se visualizan las imagenes</t>
+  </si>
+  <si>
+    <t>La vista del modal se debe poder cerra clickeando en la cruz o afuera de la misma</t>
+  </si>
+  <si>
+    <t>El modal se puede cerrar</t>
+  </si>
+  <si>
+    <t>Se debe acceder al modal de un producto</t>
+  </si>
+  <si>
+    <t>1 - Abrir el modal     2 - Clickear la 'X'    3 - Verificar que se cierra     4 - Repetir 1, clickear fuera del modal, verificar que se cierra</t>
+  </si>
+  <si>
+    <t>Se cierra el modal correctamente</t>
+  </si>
+  <si>
+    <t>En modo tablet, cambia de imagen cada 3 segundos</t>
+  </si>
+  <si>
+    <t>La pagina producto se adapta a distintas pantallas</t>
+  </si>
+  <si>
+    <t>La pagina se debe visualizar correctamente en desktop, en modo tablet y mobile</t>
+  </si>
+  <si>
+    <t>1 - Entrar a un producto     2 - Activar modo responsive de las herramientas de desarrollador del navegador    3 - Verificar que se visualiza correctamente en cada pantalla</t>
+  </si>
+  <si>
+    <t>En el modo tablet, en la vista de un producto, las imagenes pasan automaticamente cada 3 segundos</t>
+  </si>
+  <si>
+    <t>Se debe acceder a un producto en modo tablet</t>
+  </si>
+  <si>
+    <t>1 - Entrar a un producto     2 - Esperar 3 segundos    3 - Verificar que se ve una nueva imagen</t>
+  </si>
+  <si>
+    <t>Se cambia de imagen automaticamente cada 3 segundos</t>
+  </si>
+  <si>
+    <t>En modo mobile, cambia de imagen cada 3 segundos</t>
+  </si>
+  <si>
+    <t>En el modo mobile, en la vista de un producto, las imagenes pasan automaticamente cada 3 segundos</t>
+  </si>
+  <si>
+    <t>Se debe acceder a un producto en modo mobile</t>
+  </si>
+  <si>
+    <t>CP-23</t>
+  </si>
+  <si>
+    <t>CP-24</t>
+  </si>
+  <si>
+    <t>CP-25</t>
+  </si>
+  <si>
+    <t>CP-26</t>
+  </si>
+  <si>
+    <t>Se visualizan los detalles y las caracteristicas del producto</t>
+  </si>
+  <si>
+    <t>En la pagina de un producto deberia verse una descripcion y caracteristicas del producto</t>
+  </si>
+  <si>
+    <t>1 - Entrar a un producto     2 - Verificar que se visualizan los datos</t>
+  </si>
+  <si>
+    <t>Se ven los datos del producto</t>
+  </si>
+  <si>
+    <t>Deberia ser posible volver al home clickeando la flecha hacia atras que se encuentra en el bloque header del producto</t>
+  </si>
+  <si>
+    <t>El boton flecha hacia atras del header de productos vuelve al home</t>
+  </si>
+  <si>
+    <t>1 - Entrar a un producto     2 - Clickear el boton flecha hacia atras    3 - Verificar que cambia la ubicacion del sitio al Home</t>
+  </si>
+  <si>
+    <t>La url cambia a " / "</t>
+  </si>
+  <si>
+    <t>La paginacion deberia renderizar distintas cards cuando se pasa de pagina</t>
+  </si>
+  <si>
+    <t>Se debe acceder al home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Entrar a la pagina     2 - Navegar hasta la parte inferior   3 - Cambiar de pagina   4 - Verificar que se visualizan distintas cards </t>
+  </si>
+  <si>
+    <t>Se visualizan distintas cards</t>
+  </si>
+  <si>
+    <t>Al cambiar de categoria la paginacion se resetea</t>
+  </si>
+  <si>
+    <t>La paginacion deberia reiniciarse al cambiar de categoria</t>
+  </si>
+  <si>
+    <t>Avanzar hasta una paginacion cualquiera</t>
+  </si>
+  <si>
+    <t>1 - Clickear en una categoria distinta    2 - Verificar que la paginacion se ha reiniciado</t>
+  </si>
+  <si>
+    <t>Se reinicia la paginacion</t>
+  </si>
+  <si>
+    <t>CP-27</t>
+  </si>
+  <si>
+    <t>Al buscar una ciudad la paginacion se resetea</t>
+  </si>
+  <si>
+    <t>La paginacion deberia reiniciarse al buscar una ciudad</t>
+  </si>
+  <si>
+    <t>1 - Seleccionar una ciudad distinta    2 - Click en Buscar   3 - Verificar que la paginacion se ha reiniciado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -322,6 +550,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -430,12 +663,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -677,40 +919,40 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1"/>
@@ -731,20 +973,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -764,7 +1006,7 @@
     </row>
     <row r="3" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -775,21 +1017,21 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -810,32 +1052,32 @@
     </row>
     <row r="4" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
+      <c r="H4" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -856,32 +1098,32 @@
     </row>
     <row r="5" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
+      <c r="H5" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -902,32 +1144,32 @@
     </row>
     <row r="6" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
+      <c r="H6" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -948,32 +1190,32 @@
     </row>
     <row r="7" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3" t="s">
-        <v>38</v>
+      <c r="H7" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -994,32 +1236,32 @@
     </row>
     <row r="8" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3" t="s">
-        <v>42</v>
+      <c r="H8" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1040,32 +1282,32 @@
     </row>
     <row r="9" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3" t="s">
-        <v>47</v>
+      <c r="H9" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1086,32 +1328,32 @@
     </row>
     <row r="10" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3" t="s">
-        <v>52</v>
+      <c r="H10" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1132,32 +1374,32 @@
     </row>
     <row r="11" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3" t="s">
-        <v>58</v>
+      <c r="H11" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1178,32 +1420,32 @@
     </row>
     <row r="12" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3" t="s">
-        <v>63</v>
+      <c r="H12" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1224,32 +1466,32 @@
     </row>
     <row r="13" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3" t="s">
-        <v>68</v>
+      <c r="H13" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1270,32 +1512,32 @@
     </row>
     <row r="14" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3" t="s">
-        <v>73</v>
+      <c r="H14" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1316,32 +1558,32 @@
     </row>
     <row r="15" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3" t="s">
-        <v>78</v>
+      <c r="H15" s="5" t="s">
+        <v>107</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1361,16 +1603,34 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="A16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1389,16 +1649,34 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="A17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1417,16 +1695,34 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="A18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1445,16 +1741,34 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="A19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1473,16 +1787,34 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="A20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1501,16 +1833,34 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1529,16 +1879,34 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="A22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1557,16 +1925,34 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="A23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1585,16 +1971,34 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="A24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1613,16 +2017,34 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="A25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1641,16 +2063,34 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="A26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1669,16 +2109,34 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="A27" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1697,16 +2155,34 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="A28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1725,16 +2201,34 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="A29" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1757,8 +2251,8 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1785,8 +2279,8 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1813,8 +2307,8 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1841,8 +2335,8 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1869,8 +2363,8 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1897,8 +2391,8 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1925,8 +2419,8 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1953,8 +2447,8 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1981,8 +2475,8 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2009,8 +2503,8 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2037,8 +2531,8 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2065,8 +2559,8 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2093,8 +2587,8 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2121,8 +2615,8 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2149,8 +2643,8 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2177,8 +2671,8 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2205,8 +2699,8 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2233,8 +2727,8 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2261,8 +2755,8 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2289,8 +2783,8 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2317,8 +2811,8 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2345,8 +2839,8 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="5"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2373,8 +2867,8 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2401,8 +2895,8 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="5"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2429,8 +2923,8 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="5"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2457,8 +2951,8 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2485,8 +2979,8 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -2513,8 +3007,8 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="5"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2541,8 +3035,8 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2569,8 +3063,8 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -2597,8 +3091,8 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="5"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2625,8 +3119,8 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="8"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2653,8 +3147,8 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="8"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2681,8 +3175,8 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="5"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="8"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -2709,8 +3203,8 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="8"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2737,8 +3231,8 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="5"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -2765,8 +3259,8 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="5"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2793,8 +3287,8 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="5"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -2821,8 +3315,8 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="8"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -2849,8 +3343,8 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="5"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="8"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -2877,8 +3371,8 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="5"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="8"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -2905,8 +3399,8 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="5"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="8"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -2933,8 +3427,8 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="5"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="8"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2961,8 +3455,8 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="5"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="8"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -2989,8 +3483,8 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3017,8 +3511,8 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="5"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="8"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3045,8 +3539,8 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="5"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="8"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3073,8 +3567,8 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="5"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="8"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3101,8 +3595,8 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="5"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="8"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3129,8 +3623,8 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="5"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -3157,8 +3651,8 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="5"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="8"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -3185,8 +3679,8 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="5"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="8"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -3213,8 +3707,8 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="5"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="8"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -3241,8 +3735,8 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="5"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="8"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3269,8 +3763,8 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="5"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -3297,8 +3791,8 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="5"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="8"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -3325,8 +3819,8 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="5"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -3353,8 +3847,8 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="5"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -3381,8 +3875,8 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="5"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="8"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -3409,8 +3903,8 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="5"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="8"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -3437,8 +3931,8 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="5"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -3465,8 +3959,8 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="5"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="8"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -3493,8 +3987,8 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="5"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="8"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -3521,8 +4015,8 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="5"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="8"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -3549,8 +4043,8 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="5"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="8"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -3577,8 +4071,8 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="5"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="8"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -3605,8 +4099,8 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="5"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="8"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -3633,8 +4127,8 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="5"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="8"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -3661,8 +4155,8 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="5"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="8"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -3689,8 +4183,8 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="5"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="8"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -3717,8 +4211,8 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="5"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="8"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -3745,8 +4239,8 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="5"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="8"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -3773,8 +4267,8 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="5"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="8"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -3801,8 +4295,8 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="5"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="8"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -3829,8 +4323,8 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="5"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="8"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -3857,8 +4351,8 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="5"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="8"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -3885,8 +4379,8 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="5"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="8"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -3913,8 +4407,8 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="5"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="8"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -3941,8 +4435,8 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="5"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="8"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -3969,8 +4463,8 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="5"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="8"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -3997,8 +4491,8 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="5"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="8"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -4025,8 +4519,8 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="5"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="8"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -4053,8 +4547,8 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="5"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="8"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -4081,8 +4575,8 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="5"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="8"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -4109,8 +4603,8 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="5"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="8"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -4137,8 +4631,8 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="5"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -4165,8 +4659,8 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="5"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="8"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -4193,8 +4687,8 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="5"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="8"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -4221,8 +4715,8 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="5"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="8"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4249,8 +4743,8 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="5"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="8"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4277,8 +4771,8 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="5"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="8"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4305,8 +4799,8 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="5"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="8"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4333,8 +4827,8 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="5"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="8"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -4361,8 +4855,8 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="5"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="8"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -4389,8 +4883,8 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="5"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="8"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4417,8 +4911,8 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="5"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="8"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4445,8 +4939,8 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="5"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="8"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4473,8 +4967,8 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="5"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="8"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -4501,8 +4995,8 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="5"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="8"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -4529,8 +5023,8 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="5"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="8"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -4557,8 +5051,8 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="5"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="8"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -4585,8 +5079,8 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="5"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="8"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -4613,8 +5107,8 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="5"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="8"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -4641,8 +5135,8 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="5"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="8"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -4669,8 +5163,8 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="5"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="8"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -4697,8 +5191,8 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="5"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="8"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -4725,8 +5219,8 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="5"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="8"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -4753,8 +5247,8 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="5"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="8"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -4781,8 +5275,8 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="5"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="8"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -4809,8 +5303,8 @@
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="5"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="8"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -4837,8 +5331,8 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="5"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="8"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -4865,8 +5359,8 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="5"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="8"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -4893,8 +5387,8 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="5"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="8"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -4921,8 +5415,8 @@
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="5"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="8"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -4949,8 +5443,8 @@
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="5"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="8"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -4977,8 +5471,8 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="5"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="8"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -5005,8 +5499,8 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="5"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="8"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -5033,8 +5527,8 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="5"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="8"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -5061,8 +5555,8 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="5"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="8"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -5089,8 +5583,8 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="5"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="8"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5117,8 +5611,8 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="5"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="8"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5145,8 +5639,8 @@
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="5"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="8"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5173,8 +5667,8 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="5"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="8"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -5201,8 +5695,8 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="5"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="8"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -5229,8 +5723,8 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="5"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="8"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -5257,8 +5751,8 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="5"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="8"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -5285,8 +5779,8 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="5"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="8"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5313,8 +5807,8 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="5"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="8"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5341,8 +5835,8 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="5"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="8"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -5369,8 +5863,8 @@
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="5"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="8"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -5397,8 +5891,8 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="5"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="8"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -5425,8 +5919,8 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="5"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="8"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -5453,8 +5947,8 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="5"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="8"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -5481,8 +5975,8 @@
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="5"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="8"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -5509,8 +6003,8 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="5"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="8"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -5537,8 +6031,8 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="5"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="8"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -5565,8 +6059,8 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="5"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="8"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -5593,8 +6087,8 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="5"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="8"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -5621,8 +6115,8 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="5"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="8"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -5649,8 +6143,8 @@
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="5"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="8"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -5677,8 +6171,8 @@
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="5"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="8"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -5705,8 +6199,8 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="5"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="8"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -5733,8 +6227,8 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="5"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="8"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -5761,8 +6255,8 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="5"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="8"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -5789,8 +6283,8 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="5"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="8"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -5817,8 +6311,8 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="5"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="8"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -5845,8 +6339,8 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="5"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="8"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -5873,8 +6367,8 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="5"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="8"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -5901,8 +6395,8 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="5"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="8"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -5929,8 +6423,8 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="5"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="8"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -5957,8 +6451,8 @@
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="5"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="8"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -5985,8 +6479,8 @@
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="5"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="8"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -6013,8 +6507,8 @@
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="5"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="8"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -6041,8 +6535,8 @@
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="5"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="8"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -6069,8 +6563,8 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="5"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="8"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6097,8 +6591,8 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="5"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="8"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6125,8 +6619,8 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="5"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="8"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -6153,8 +6647,8 @@
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="5"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="8"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -6181,8 +6675,8 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="5"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="8"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -6209,8 +6703,8 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="5"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="8"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -6237,8 +6731,8 @@
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="5"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="8"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -6265,8 +6759,8 @@
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="5"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="8"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -6293,8 +6787,8 @@
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="5"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="8"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -6321,8 +6815,8 @@
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="5"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="8"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -6349,8 +6843,8 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="5"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="8"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -6377,8 +6871,8 @@
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="5"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="8"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -6405,8 +6899,8 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="5"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="8"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -6433,8 +6927,8 @@
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="5"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="8"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -6461,8 +6955,8 @@
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="5"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="8"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -6489,8 +6983,8 @@
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="5"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="8"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -6517,8 +7011,8 @@
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="5"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="8"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -6545,8 +7039,8 @@
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="5"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="8"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
@@ -6573,8 +7067,8 @@
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="5"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="8"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
@@ -6601,8 +7095,8 @@
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="5"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="8"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
@@ -6629,8 +7123,8 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="5"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="8"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -6657,8 +7151,8 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="5"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="8"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -6685,8 +7179,8 @@
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="5"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="8"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -6713,8 +7207,8 @@
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="5"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="8"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -6741,8 +7235,8 @@
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="5"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="8"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -6769,8 +7263,8 @@
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="5"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="8"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -6797,8 +7291,8 @@
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="5"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="8"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -6825,8 +7319,8 @@
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="5"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="8"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -6853,8 +7347,8 @@
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="5"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="8"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -6881,8 +7375,8 @@
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="5"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="8"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -6909,8 +7403,8 @@
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="5"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="8"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -6937,8 +7431,8 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="5"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="8"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -6965,8 +7459,8 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="5"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="8"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -6993,8 +7487,8 @@
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="5"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="8"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -7021,8 +7515,8 @@
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="5"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="8"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -7049,8 +7543,8 @@
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="5"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="8"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
@@ -7077,8 +7571,8 @@
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="5"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="8"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -7105,8 +7599,8 @@
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="5"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="8"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -7133,8 +7627,8 @@
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="5"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="8"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
@@ -7161,8 +7655,8 @@
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="5"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="8"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
@@ -7189,8 +7683,8 @@
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="5"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="8"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
@@ -7217,8 +7711,8 @@
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="5"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="8"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
@@ -7245,8 +7739,8 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="5"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="8"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
@@ -7273,8 +7767,8 @@
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="5"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="8"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
@@ -7301,8 +7795,8 @@
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="5"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="8"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -7329,8 +7823,8 @@
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="5"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="8"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
@@ -7357,8 +7851,8 @@
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="5"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="8"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -7385,8 +7879,8 @@
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="5"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="8"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
@@ -7413,8 +7907,8 @@
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="4"/>
-      <c r="F232" s="5"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="8"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
@@ -7441,8 +7935,8 @@
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="4"/>
-      <c r="F233" s="5"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="8"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
@@ -7469,8 +7963,8 @@
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="4"/>
-      <c r="F234" s="5"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="8"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -7497,8 +7991,8 @@
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="4"/>
-      <c r="F235" s="5"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="8"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -7525,8 +8019,8 @@
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="4"/>
-      <c r="F236" s="5"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="8"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -7553,8 +8047,8 @@
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="5"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="8"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -7581,8 +8075,8 @@
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="4"/>
-      <c r="F238" s="5"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="8"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -7609,8 +8103,8 @@
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="5"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="8"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -7637,8 +8131,8 @@
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
-      <c r="E240" s="4"/>
-      <c r="F240" s="5"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="8"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -7665,8 +8159,8 @@
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="4"/>
-      <c r="F241" s="5"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="8"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -7693,8 +8187,8 @@
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
-      <c r="E242" s="4"/>
-      <c r="F242" s="5"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="8"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -7721,8 +8215,8 @@
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
-      <c r="E243" s="4"/>
-      <c r="F243" s="5"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="8"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -7749,8 +8243,8 @@
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="5"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="8"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -7777,8 +8271,8 @@
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="4"/>
-      <c r="F245" s="5"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="8"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
@@ -7805,8 +8299,8 @@
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
-      <c r="E246" s="4"/>
-      <c r="F246" s="5"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="8"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
@@ -7833,8 +8327,8 @@
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="4"/>
-      <c r="F247" s="5"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="8"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
@@ -7861,8 +8355,8 @@
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="4"/>
-      <c r="F248" s="5"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="8"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
@@ -7889,8 +8383,8 @@
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
-      <c r="E249" s="4"/>
-      <c r="F249" s="5"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="8"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
@@ -7917,8 +8411,8 @@
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
-      <c r="E250" s="4"/>
-      <c r="F250" s="5"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="8"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
@@ -7945,8 +8439,8 @@
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
-      <c r="E251" s="4"/>
-      <c r="F251" s="5"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="8"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
@@ -7973,8 +8467,8 @@
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
-      <c r="E252" s="4"/>
-      <c r="F252" s="5"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="8"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
@@ -8001,8 +8495,8 @@
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="4"/>
-      <c r="F253" s="5"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="8"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
@@ -8029,8 +8523,8 @@
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="4"/>
-      <c r="F254" s="5"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="8"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
@@ -8057,8 +8551,8 @@
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="5"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="8"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
@@ -8085,8 +8579,8 @@
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="5"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="8"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
@@ -8113,8 +8607,8 @@
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="5"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="8"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
@@ -8141,8 +8635,8 @@
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
-      <c r="E258" s="4"/>
-      <c r="F258" s="5"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="8"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
@@ -8169,8 +8663,8 @@
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
-      <c r="E259" s="4"/>
-      <c r="F259" s="5"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="8"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
@@ -8197,8 +8691,8 @@
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
-      <c r="E260" s="4"/>
-      <c r="F260" s="5"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="8"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
@@ -8225,8 +8719,8 @@
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="4"/>
-      <c r="F261" s="5"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="8"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
@@ -8253,8 +8747,8 @@
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="4"/>
-      <c r="F262" s="5"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="8"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
@@ -8281,8 +8775,8 @@
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
-      <c r="E263" s="4"/>
-      <c r="F263" s="5"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="8"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
@@ -8309,8 +8803,8 @@
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
-      <c r="E264" s="4"/>
-      <c r="F264" s="5"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="8"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -8337,8 +8831,8 @@
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
-      <c r="E265" s="4"/>
-      <c r="F265" s="5"/>
+      <c r="E265" s="7"/>
+      <c r="F265" s="8"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -8365,8 +8859,8 @@
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="5"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="8"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -8393,8 +8887,8 @@
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="5"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="8"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -8421,8 +8915,8 @@
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="5"/>
+      <c r="E268" s="7"/>
+      <c r="F268" s="8"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
@@ -8449,8 +8943,8 @@
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="5"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="8"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
@@ -8477,8 +8971,8 @@
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="4"/>
-      <c r="F270" s="5"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="8"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
@@ -8505,8 +8999,8 @@
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="5"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="8"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
@@ -8533,8 +9027,8 @@
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="5"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="8"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
@@ -8561,8 +9055,8 @@
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="5"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="8"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
@@ -8589,8 +9083,8 @@
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="5"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="8"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
@@ -8617,8 +9111,8 @@
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="5"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="8"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
@@ -8645,8 +9139,8 @@
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="5"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="8"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
@@ -8673,8 +9167,8 @@
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
-      <c r="E277" s="4"/>
-      <c r="F277" s="5"/>
+      <c r="E277" s="7"/>
+      <c r="F277" s="8"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
@@ -8701,8 +9195,8 @@
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="5"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="8"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
@@ -8729,8 +9223,8 @@
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="5"/>
+      <c r="E279" s="7"/>
+      <c r="F279" s="8"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
@@ -8757,8 +9251,8 @@
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
-      <c r="E280" s="4"/>
-      <c r="F280" s="5"/>
+      <c r="E280" s="7"/>
+      <c r="F280" s="8"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
@@ -8785,8 +9279,8 @@
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
-      <c r="E281" s="4"/>
-      <c r="F281" s="5"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="8"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
@@ -8813,8 +9307,8 @@
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
-      <c r="E282" s="4"/>
-      <c r="F282" s="5"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="8"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
@@ -8841,8 +9335,8 @@
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="4"/>
-      <c r="F283" s="5"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="8"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
@@ -8869,8 +9363,8 @@
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
-      <c r="E284" s="4"/>
-      <c r="F284" s="5"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="8"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
@@ -8897,8 +9391,8 @@
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="5"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="8"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
@@ -8925,8 +9419,8 @@
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
-      <c r="E286" s="4"/>
-      <c r="F286" s="5"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="8"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
@@ -8953,8 +9447,8 @@
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
-      <c r="E287" s="4"/>
-      <c r="F287" s="5"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="8"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
@@ -8981,8 +9475,8 @@
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
-      <c r="E288" s="4"/>
-      <c r="F288" s="5"/>
+      <c r="E288" s="7"/>
+      <c r="F288" s="8"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
@@ -9009,8 +9503,8 @@
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="4"/>
-      <c r="F289" s="5"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="8"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
@@ -9037,8 +9531,8 @@
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="5"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="8"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
@@ -9065,8 +9559,8 @@
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
-      <c r="E291" s="4"/>
-      <c r="F291" s="5"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="8"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
@@ -9093,8 +9587,8 @@
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
-      <c r="E292" s="4"/>
-      <c r="F292" s="5"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="8"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
@@ -9121,8 +9615,8 @@
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
-      <c r="E293" s="4"/>
-      <c r="F293" s="5"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="8"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -9149,8 +9643,8 @@
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
-      <c r="E294" s="4"/>
-      <c r="F294" s="5"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="8"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
@@ -9177,8 +9671,8 @@
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
-      <c r="E295" s="4"/>
-      <c r="F295" s="5"/>
+      <c r="E295" s="7"/>
+      <c r="F295" s="8"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
@@ -9205,8 +9699,8 @@
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
-      <c r="E296" s="4"/>
-      <c r="F296" s="5"/>
+      <c r="E296" s="7"/>
+      <c r="F296" s="8"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
@@ -9233,8 +9727,8 @@
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="4"/>
-      <c r="F297" s="5"/>
+      <c r="E297" s="7"/>
+      <c r="F297" s="8"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
@@ -9261,8 +9755,8 @@
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
-      <c r="E298" s="4"/>
-      <c r="F298" s="5"/>
+      <c r="E298" s="7"/>
+      <c r="F298" s="8"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
@@ -9289,8 +9783,8 @@
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
-      <c r="E299" s="4"/>
-      <c r="F299" s="5"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="8"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
@@ -9317,8 +9811,8 @@
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
-      <c r="E300" s="4"/>
-      <c r="F300" s="5"/>
+      <c r="E300" s="7"/>
+      <c r="F300" s="8"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
@@ -9345,8 +9839,8 @@
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
-      <c r="E301" s="4"/>
-      <c r="F301" s="5"/>
+      <c r="E301" s="7"/>
+      <c r="F301" s="8"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
@@ -9373,8 +9867,8 @@
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
-      <c r="E302" s="4"/>
-      <c r="F302" s="5"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="8"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
@@ -9401,8 +9895,8 @@
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
-      <c r="E303" s="4"/>
-      <c r="F303" s="5"/>
+      <c r="E303" s="7"/>
+      <c r="F303" s="8"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
@@ -9429,8 +9923,8 @@
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="4"/>
-      <c r="F304" s="5"/>
+      <c r="E304" s="7"/>
+      <c r="F304" s="8"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
@@ -9457,8 +9951,8 @@
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
-      <c r="E305" s="4"/>
-      <c r="F305" s="5"/>
+      <c r="E305" s="7"/>
+      <c r="F305" s="8"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
@@ -9485,8 +9979,8 @@
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
-      <c r="E306" s="4"/>
-      <c r="F306" s="5"/>
+      <c r="E306" s="7"/>
+      <c r="F306" s="8"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
@@ -9513,8 +10007,8 @@
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="5"/>
+      <c r="E307" s="7"/>
+      <c r="F307" s="8"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
@@ -9541,8 +10035,8 @@
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
-      <c r="E308" s="4"/>
-      <c r="F308" s="5"/>
+      <c r="E308" s="7"/>
+      <c r="F308" s="8"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
@@ -9569,8 +10063,8 @@
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="5"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="8"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
@@ -9597,8 +10091,8 @@
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="5"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="8"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
@@ -9625,8 +10119,8 @@
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="4"/>
-      <c r="F311" s="5"/>
+      <c r="E311" s="7"/>
+      <c r="F311" s="8"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
@@ -9653,8 +10147,8 @@
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="5"/>
+      <c r="E312" s="7"/>
+      <c r="F312" s="8"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
@@ -9681,8 +10175,8 @@
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="5"/>
+      <c r="E313" s="7"/>
+      <c r="F313" s="8"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
@@ -9709,8 +10203,8 @@
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
-      <c r="E314" s="4"/>
-      <c r="F314" s="5"/>
+      <c r="E314" s="7"/>
+      <c r="F314" s="8"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
@@ -9737,8 +10231,8 @@
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="5"/>
+      <c r="E315" s="7"/>
+      <c r="F315" s="8"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
@@ -9765,8 +10259,8 @@
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="5"/>
+      <c r="E316" s="7"/>
+      <c r="F316" s="8"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
@@ -9793,8 +10287,8 @@
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="5"/>
+      <c r="E317" s="7"/>
+      <c r="F317" s="8"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
@@ -9821,8 +10315,8 @@
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="4"/>
-      <c r="F318" s="5"/>
+      <c r="E318" s="7"/>
+      <c r="F318" s="8"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
@@ -9849,8 +10343,8 @@
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="5"/>
+      <c r="E319" s="7"/>
+      <c r="F319" s="8"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
@@ -9877,8 +10371,8 @@
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
-      <c r="E320" s="4"/>
-      <c r="F320" s="5"/>
+      <c r="E320" s="7"/>
+      <c r="F320" s="8"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
@@ -9905,8 +10399,8 @@
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
-      <c r="E321" s="4"/>
-      <c r="F321" s="5"/>
+      <c r="E321" s="7"/>
+      <c r="F321" s="8"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
@@ -9933,8 +10427,8 @@
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
-      <c r="E322" s="4"/>
-      <c r="F322" s="5"/>
+      <c r="E322" s="7"/>
+      <c r="F322" s="8"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
@@ -9961,8 +10455,8 @@
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
-      <c r="E323" s="4"/>
-      <c r="F323" s="5"/>
+      <c r="E323" s="7"/>
+      <c r="F323" s="8"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
@@ -9989,8 +10483,8 @@
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
-      <c r="E324" s="4"/>
-      <c r="F324" s="5"/>
+      <c r="E324" s="7"/>
+      <c r="F324" s="8"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
@@ -10017,8 +10511,8 @@
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="4"/>
-      <c r="F325" s="5"/>
+      <c r="E325" s="7"/>
+      <c r="F325" s="8"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
@@ -10045,8 +10539,8 @@
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
-      <c r="E326" s="4"/>
-      <c r="F326" s="5"/>
+      <c r="E326" s="7"/>
+      <c r="F326" s="8"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
@@ -10073,8 +10567,8 @@
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
-      <c r="E327" s="4"/>
-      <c r="F327" s="5"/>
+      <c r="E327" s="7"/>
+      <c r="F327" s="8"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -10101,8 +10595,8 @@
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
-      <c r="E328" s="4"/>
-      <c r="F328" s="5"/>
+      <c r="E328" s="7"/>
+      <c r="F328" s="8"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
@@ -10129,8 +10623,8 @@
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
-      <c r="E329" s="4"/>
-      <c r="F329" s="5"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="8"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
@@ -10157,8 +10651,8 @@
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
-      <c r="E330" s="4"/>
-      <c r="F330" s="5"/>
+      <c r="E330" s="7"/>
+      <c r="F330" s="8"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
@@ -10185,8 +10679,8 @@
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
-      <c r="E331" s="4"/>
-      <c r="F331" s="5"/>
+      <c r="E331" s="7"/>
+      <c r="F331" s="8"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
@@ -10213,8 +10707,8 @@
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
-      <c r="E332" s="4"/>
-      <c r="F332" s="5"/>
+      <c r="E332" s="7"/>
+      <c r="F332" s="8"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
@@ -10241,8 +10735,8 @@
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
-      <c r="E333" s="4"/>
-      <c r="F333" s="5"/>
+      <c r="E333" s="7"/>
+      <c r="F333" s="8"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
@@ -10269,8 +10763,8 @@
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
-      <c r="E334" s="4"/>
-      <c r="F334" s="5"/>
+      <c r="E334" s="7"/>
+      <c r="F334" s="8"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
@@ -10297,8 +10791,8 @@
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
-      <c r="E335" s="4"/>
-      <c r="F335" s="5"/>
+      <c r="E335" s="7"/>
+      <c r="F335" s="8"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
@@ -10325,8 +10819,8 @@
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
-      <c r="E336" s="4"/>
-      <c r="F336" s="5"/>
+      <c r="E336" s="7"/>
+      <c r="F336" s="8"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
@@ -10353,8 +10847,8 @@
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
-      <c r="E337" s="4"/>
-      <c r="F337" s="5"/>
+      <c r="E337" s="7"/>
+      <c r="F337" s="8"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
@@ -10381,8 +10875,8 @@
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
-      <c r="E338" s="4"/>
-      <c r="F338" s="5"/>
+      <c r="E338" s="7"/>
+      <c r="F338" s="8"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
@@ -10409,8 +10903,8 @@
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
-      <c r="E339" s="4"/>
-      <c r="F339" s="5"/>
+      <c r="E339" s="7"/>
+      <c r="F339" s="8"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
@@ -10437,8 +10931,8 @@
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
-      <c r="E340" s="4"/>
-      <c r="F340" s="5"/>
+      <c r="E340" s="7"/>
+      <c r="F340" s="8"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
@@ -10465,8 +10959,8 @@
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
-      <c r="E341" s="4"/>
-      <c r="F341" s="5"/>
+      <c r="E341" s="7"/>
+      <c r="F341" s="8"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
@@ -10493,8 +10987,8 @@
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
-      <c r="E342" s="4"/>
-      <c r="F342" s="5"/>
+      <c r="E342" s="7"/>
+      <c r="F342" s="8"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
@@ -10521,8 +11015,8 @@
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
-      <c r="E343" s="4"/>
-      <c r="F343" s="5"/>
+      <c r="E343" s="7"/>
+      <c r="F343" s="8"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
@@ -10549,8 +11043,8 @@
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
-      <c r="E344" s="4"/>
-      <c r="F344" s="5"/>
+      <c r="E344" s="7"/>
+      <c r="F344" s="8"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
@@ -10577,8 +11071,8 @@
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
-      <c r="E345" s="4"/>
-      <c r="F345" s="5"/>
+      <c r="E345" s="7"/>
+      <c r="F345" s="8"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
@@ -10605,8 +11099,8 @@
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
-      <c r="E346" s="4"/>
-      <c r="F346" s="5"/>
+      <c r="E346" s="7"/>
+      <c r="F346" s="8"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
@@ -10633,8 +11127,8 @@
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
-      <c r="E347" s="4"/>
-      <c r="F347" s="5"/>
+      <c r="E347" s="7"/>
+      <c r="F347" s="8"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
@@ -10661,8 +11155,8 @@
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
-      <c r="E348" s="4"/>
-      <c r="F348" s="5"/>
+      <c r="E348" s="7"/>
+      <c r="F348" s="8"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
@@ -10689,8 +11183,8 @@
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
-      <c r="E349" s="4"/>
-      <c r="F349" s="5"/>
+      <c r="E349" s="7"/>
+      <c r="F349" s="8"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
@@ -10717,8 +11211,8 @@
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
-      <c r="E350" s="4"/>
-      <c r="F350" s="5"/>
+      <c r="E350" s="7"/>
+      <c r="F350" s="8"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
@@ -10745,8 +11239,8 @@
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
-      <c r="E351" s="4"/>
-      <c r="F351" s="5"/>
+      <c r="E351" s="7"/>
+      <c r="F351" s="8"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
@@ -10773,8 +11267,8 @@
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
-      <c r="E352" s="4"/>
-      <c r="F352" s="5"/>
+      <c r="E352" s="7"/>
+      <c r="F352" s="8"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
@@ -10801,8 +11295,8 @@
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
-      <c r="E353" s="4"/>
-      <c r="F353" s="5"/>
+      <c r="E353" s="7"/>
+      <c r="F353" s="8"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
@@ -10829,8 +11323,8 @@
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
-      <c r="E354" s="4"/>
-      <c r="F354" s="5"/>
+      <c r="E354" s="7"/>
+      <c r="F354" s="8"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
@@ -10857,8 +11351,8 @@
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
-      <c r="E355" s="4"/>
-      <c r="F355" s="5"/>
+      <c r="E355" s="7"/>
+      <c r="F355" s="8"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
@@ -10885,8 +11379,8 @@
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
-      <c r="E356" s="4"/>
-      <c r="F356" s="5"/>
+      <c r="E356" s="7"/>
+      <c r="F356" s="8"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
@@ -10913,8 +11407,8 @@
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
-      <c r="E357" s="4"/>
-      <c r="F357" s="5"/>
+      <c r="E357" s="7"/>
+      <c r="F357" s="8"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
@@ -10941,8 +11435,8 @@
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
-      <c r="E358" s="4"/>
-      <c r="F358" s="5"/>
+      <c r="E358" s="7"/>
+      <c r="F358" s="8"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
@@ -10969,8 +11463,8 @@
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
-      <c r="E359" s="4"/>
-      <c r="F359" s="5"/>
+      <c r="E359" s="7"/>
+      <c r="F359" s="8"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
@@ -10997,8 +11491,8 @@
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
-      <c r="E360" s="4"/>
-      <c r="F360" s="5"/>
+      <c r="E360" s="7"/>
+      <c r="F360" s="8"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
@@ -11025,8 +11519,8 @@
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
-      <c r="E361" s="4"/>
-      <c r="F361" s="5"/>
+      <c r="E361" s="7"/>
+      <c r="F361" s="8"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
@@ -11053,8 +11547,8 @@
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
-      <c r="E362" s="4"/>
-      <c r="F362" s="5"/>
+      <c r="E362" s="7"/>
+      <c r="F362" s="8"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
@@ -11081,8 +11575,8 @@
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
-      <c r="E363" s="4"/>
-      <c r="F363" s="5"/>
+      <c r="E363" s="7"/>
+      <c r="F363" s="8"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
@@ -11109,8 +11603,8 @@
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="5"/>
+      <c r="E364" s="7"/>
+      <c r="F364" s="8"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
@@ -11137,8 +11631,8 @@
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
-      <c r="E365" s="4"/>
-      <c r="F365" s="5"/>
+      <c r="E365" s="7"/>
+      <c r="F365" s="8"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
@@ -11165,8 +11659,8 @@
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
-      <c r="E366" s="4"/>
-      <c r="F366" s="5"/>
+      <c r="E366" s="7"/>
+      <c r="F366" s="8"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
@@ -11193,8 +11687,8 @@
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
-      <c r="E367" s="4"/>
-      <c r="F367" s="5"/>
+      <c r="E367" s="7"/>
+      <c r="F367" s="8"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
@@ -11221,8 +11715,8 @@
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
-      <c r="E368" s="4"/>
-      <c r="F368" s="5"/>
+      <c r="E368" s="7"/>
+      <c r="F368" s="8"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
@@ -11249,8 +11743,8 @@
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
-      <c r="E369" s="4"/>
-      <c r="F369" s="5"/>
+      <c r="E369" s="7"/>
+      <c r="F369" s="8"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
@@ -11277,8 +11771,8 @@
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
-      <c r="E370" s="4"/>
-      <c r="F370" s="5"/>
+      <c r="E370" s="7"/>
+      <c r="F370" s="8"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
@@ -11305,8 +11799,8 @@
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
-      <c r="E371" s="4"/>
-      <c r="F371" s="5"/>
+      <c r="E371" s="7"/>
+      <c r="F371" s="8"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
@@ -11333,8 +11827,8 @@
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
-      <c r="E372" s="4"/>
-      <c r="F372" s="5"/>
+      <c r="E372" s="7"/>
+      <c r="F372" s="8"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
@@ -11361,8 +11855,8 @@
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
-      <c r="E373" s="4"/>
-      <c r="F373" s="5"/>
+      <c r="E373" s="7"/>
+      <c r="F373" s="8"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
@@ -11389,8 +11883,8 @@
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
-      <c r="E374" s="4"/>
-      <c r="F374" s="5"/>
+      <c r="E374" s="7"/>
+      <c r="F374" s="8"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
@@ -11417,8 +11911,8 @@
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
-      <c r="E375" s="4"/>
-      <c r="F375" s="5"/>
+      <c r="E375" s="7"/>
+      <c r="F375" s="8"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
@@ -11445,8 +11939,8 @@
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
-      <c r="E376" s="4"/>
-      <c r="F376" s="5"/>
+      <c r="E376" s="7"/>
+      <c r="F376" s="8"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
@@ -11473,8 +11967,8 @@
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
-      <c r="E377" s="4"/>
-      <c r="F377" s="5"/>
+      <c r="E377" s="7"/>
+      <c r="F377" s="8"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
@@ -11501,8 +11995,8 @@
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
-      <c r="E378" s="4"/>
-      <c r="F378" s="5"/>
+      <c r="E378" s="7"/>
+      <c r="F378" s="8"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
@@ -11529,8 +12023,8 @@
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
-      <c r="E379" s="4"/>
-      <c r="F379" s="5"/>
+      <c r="E379" s="7"/>
+      <c r="F379" s="8"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
@@ -11557,8 +12051,8 @@
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
-      <c r="E380" s="4"/>
-      <c r="F380" s="5"/>
+      <c r="E380" s="7"/>
+      <c r="F380" s="8"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
@@ -11585,8 +12079,8 @@
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
-      <c r="E381" s="4"/>
-      <c r="F381" s="5"/>
+      <c r="E381" s="7"/>
+      <c r="F381" s="8"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
@@ -11613,8 +12107,8 @@
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
-      <c r="E382" s="4"/>
-      <c r="F382" s="5"/>
+      <c r="E382" s="7"/>
+      <c r="F382" s="8"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
@@ -11641,8 +12135,8 @@
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
-      <c r="E383" s="4"/>
-      <c r="F383" s="5"/>
+      <c r="E383" s="7"/>
+      <c r="F383" s="8"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
@@ -11669,8 +12163,8 @@
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
-      <c r="E384" s="4"/>
-      <c r="F384" s="5"/>
+      <c r="E384" s="7"/>
+      <c r="F384" s="8"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
@@ -11697,8 +12191,8 @@
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
-      <c r="E385" s="4"/>
-      <c r="F385" s="5"/>
+      <c r="E385" s="7"/>
+      <c r="F385" s="8"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
@@ -11725,8 +12219,8 @@
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
-      <c r="E386" s="4"/>
-      <c r="F386" s="5"/>
+      <c r="E386" s="7"/>
+      <c r="F386" s="8"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
@@ -11753,8 +12247,8 @@
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
-      <c r="E387" s="4"/>
-      <c r="F387" s="5"/>
+      <c r="E387" s="7"/>
+      <c r="F387" s="8"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
@@ -11781,8 +12275,8 @@
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
-      <c r="E388" s="4"/>
-      <c r="F388" s="5"/>
+      <c r="E388" s="7"/>
+      <c r="F388" s="8"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
@@ -11809,8 +12303,8 @@
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
-      <c r="E389" s="4"/>
-      <c r="F389" s="5"/>
+      <c r="E389" s="7"/>
+      <c r="F389" s="8"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
@@ -11837,8 +12331,8 @@
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
-      <c r="E390" s="4"/>
-      <c r="F390" s="5"/>
+      <c r="E390" s="7"/>
+      <c r="F390" s="8"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
@@ -11865,8 +12359,8 @@
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
-      <c r="E391" s="4"/>
-      <c r="F391" s="5"/>
+      <c r="E391" s="7"/>
+      <c r="F391" s="8"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
@@ -11893,8 +12387,8 @@
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
-      <c r="E392" s="4"/>
-      <c r="F392" s="5"/>
+      <c r="E392" s="7"/>
+      <c r="F392" s="8"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
@@ -11921,8 +12415,8 @@
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
-      <c r="E393" s="4"/>
-      <c r="F393" s="5"/>
+      <c r="E393" s="7"/>
+      <c r="F393" s="8"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
@@ -11949,8 +12443,8 @@
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
-      <c r="E394" s="4"/>
-      <c r="F394" s="5"/>
+      <c r="E394" s="7"/>
+      <c r="F394" s="8"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
@@ -11977,8 +12471,8 @@
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
-      <c r="E395" s="4"/>
-      <c r="F395" s="5"/>
+      <c r="E395" s="7"/>
+      <c r="F395" s="8"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
@@ -12005,8 +12499,8 @@
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
-      <c r="E396" s="4"/>
-      <c r="F396" s="5"/>
+      <c r="E396" s="7"/>
+      <c r="F396" s="8"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
@@ -12033,8 +12527,8 @@
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
-      <c r="E397" s="4"/>
-      <c r="F397" s="5"/>
+      <c r="E397" s="7"/>
+      <c r="F397" s="8"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
@@ -12061,8 +12555,8 @@
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
-      <c r="E398" s="4"/>
-      <c r="F398" s="5"/>
+      <c r="E398" s="7"/>
+      <c r="F398" s="8"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
@@ -12089,8 +12583,8 @@
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
-      <c r="E399" s="4"/>
-      <c r="F399" s="5"/>
+      <c r="E399" s="7"/>
+      <c r="F399" s="8"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
@@ -12117,8 +12611,8 @@
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
-      <c r="E400" s="4"/>
-      <c r="F400" s="5"/>
+      <c r="E400" s="7"/>
+      <c r="F400" s="8"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
@@ -12145,8 +12639,8 @@
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
-      <c r="E401" s="4"/>
-      <c r="F401" s="5"/>
+      <c r="E401" s="7"/>
+      <c r="F401" s="8"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
@@ -12173,8 +12667,8 @@
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
-      <c r="E402" s="4"/>
-      <c r="F402" s="5"/>
+      <c r="E402" s="7"/>
+      <c r="F402" s="8"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
@@ -12201,8 +12695,8 @@
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
-      <c r="E403" s="4"/>
-      <c r="F403" s="5"/>
+      <c r="E403" s="7"/>
+      <c r="F403" s="8"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
@@ -12229,8 +12723,8 @@
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
-      <c r="E404" s="4"/>
-      <c r="F404" s="5"/>
+      <c r="E404" s="7"/>
+      <c r="F404" s="8"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
@@ -12257,8 +12751,8 @@
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
-      <c r="E405" s="4"/>
-      <c r="F405" s="5"/>
+      <c r="E405" s="7"/>
+      <c r="F405" s="8"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
@@ -12285,8 +12779,8 @@
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
-      <c r="E406" s="4"/>
-      <c r="F406" s="5"/>
+      <c r="E406" s="7"/>
+      <c r="F406" s="8"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
@@ -12313,8 +12807,8 @@
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
-      <c r="E407" s="4"/>
-      <c r="F407" s="5"/>
+      <c r="E407" s="7"/>
+      <c r="F407" s="8"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
@@ -12341,8 +12835,8 @@
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
-      <c r="E408" s="4"/>
-      <c r="F408" s="5"/>
+      <c r="E408" s="7"/>
+      <c r="F408" s="8"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
@@ -12369,8 +12863,8 @@
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
-      <c r="E409" s="4"/>
-      <c r="F409" s="5"/>
+      <c r="E409" s="7"/>
+      <c r="F409" s="8"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
@@ -12397,8 +12891,8 @@
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
-      <c r="E410" s="4"/>
-      <c r="F410" s="5"/>
+      <c r="E410" s="7"/>
+      <c r="F410" s="8"/>
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
@@ -12425,8 +12919,8 @@
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
-      <c r="E411" s="4"/>
-      <c r="F411" s="5"/>
+      <c r="E411" s="7"/>
+      <c r="F411" s="8"/>
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
@@ -12453,8 +12947,8 @@
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
-      <c r="E412" s="4"/>
-      <c r="F412" s="5"/>
+      <c r="E412" s="7"/>
+      <c r="F412" s="8"/>
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
@@ -12481,8 +12975,8 @@
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
-      <c r="E413" s="4"/>
-      <c r="F413" s="5"/>
+      <c r="E413" s="7"/>
+      <c r="F413" s="8"/>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
@@ -12509,8 +13003,8 @@
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
-      <c r="E414" s="4"/>
-      <c r="F414" s="5"/>
+      <c r="E414" s="7"/>
+      <c r="F414" s="8"/>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
@@ -12537,8 +13031,8 @@
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
-      <c r="E415" s="4"/>
-      <c r="F415" s="5"/>
+      <c r="E415" s="7"/>
+      <c r="F415" s="8"/>
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
@@ -12565,8 +13059,8 @@
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
-      <c r="E416" s="4"/>
-      <c r="F416" s="5"/>
+      <c r="E416" s="7"/>
+      <c r="F416" s="8"/>
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
@@ -12593,8 +13087,8 @@
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
-      <c r="E417" s="4"/>
-      <c r="F417" s="5"/>
+      <c r="E417" s="7"/>
+      <c r="F417" s="8"/>
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
@@ -12621,8 +13115,8 @@
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
-      <c r="E418" s="4"/>
-      <c r="F418" s="5"/>
+      <c r="E418" s="7"/>
+      <c r="F418" s="8"/>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
@@ -12649,8 +13143,8 @@
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
-      <c r="E419" s="4"/>
-      <c r="F419" s="5"/>
+      <c r="E419" s="7"/>
+      <c r="F419" s="8"/>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
@@ -12677,8 +13171,8 @@
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
-      <c r="E420" s="4"/>
-      <c r="F420" s="5"/>
+      <c r="E420" s="7"/>
+      <c r="F420" s="8"/>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
@@ -12705,8 +13199,8 @@
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
-      <c r="E421" s="4"/>
-      <c r="F421" s="5"/>
+      <c r="E421" s="7"/>
+      <c r="F421" s="8"/>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
@@ -12733,8 +13227,8 @@
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
-      <c r="E422" s="4"/>
-      <c r="F422" s="5"/>
+      <c r="E422" s="7"/>
+      <c r="F422" s="8"/>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
@@ -12761,8 +13255,8 @@
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
-      <c r="E423" s="4"/>
-      <c r="F423" s="5"/>
+      <c r="E423" s="7"/>
+      <c r="F423" s="8"/>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
@@ -29373,6 +29867,7 @@
     <mergeCell ref="E327:F327"/>
     <mergeCell ref="E328:F328"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Testing/Template Casos de Prueba - Grupo 1.xlsx
+++ b/Testing/Template Casos de Prueba - Grupo 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workshop\TechDev\Bimestre4\grupo-01\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Proyecto final\grupo-01\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4628B3-58F3-4BFB-BA55-7BE4553F10A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D725865-1EFF-411F-8091-0FFDFB6AE118}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="172">
   <si>
     <t>Id</t>
   </si>
@@ -525,6 +525,18 @@
   <si>
     <t>1 - Seleccionar una ciudad distinta    2 - Click en Buscar   3 - Verificar que la paginacion se ha reiniciado</t>
   </si>
+  <si>
+    <t>Prueba de Aceptacion</t>
+  </si>
+  <si>
+    <t>Prueba de Regresion</t>
+  </si>
+  <si>
+    <t>Prueba de Funcional</t>
+  </si>
+  <si>
+    <t>Prueba de Integracion</t>
+  </si>
 </sst>
 </file>
 
@@ -687,6 +699,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,9 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,40 +931,40 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="1"/>
@@ -974,19 +986,19 @@
     </row>
     <row r="2" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1629,7 +1641,7 @@
         <v>92</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1675,7 +1687,7 @@
         <v>92</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1767,7 +1779,7 @@
         <v>92</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1905,7 +1917,7 @@
         <v>92</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1951,7 +1963,7 @@
         <v>92</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1997,7 +2009,7 @@
         <v>92</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2043,7 +2055,7 @@
         <v>92</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2089,7 +2101,7 @@
         <v>92</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2135,7 +2147,7 @@
         <v>92</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2181,7 +2193,7 @@
         <v>92</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2227,7 +2239,7 @@
         <v>92</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -29436,89 +29448,329 @@
     </row>
   </sheetData>
   <mergeCells count="430">
-    <mergeCell ref="E386:F386"/>
-    <mergeCell ref="E387:F387"/>
-    <mergeCell ref="E388:F388"/>
-    <mergeCell ref="E389:F389"/>
-    <mergeCell ref="E390:F390"/>
-    <mergeCell ref="E391:F391"/>
-    <mergeCell ref="E392:F392"/>
-    <mergeCell ref="E393:F393"/>
-    <mergeCell ref="E394:F394"/>
-    <mergeCell ref="E395:F395"/>
-    <mergeCell ref="E396:F396"/>
-    <mergeCell ref="E397:F397"/>
-    <mergeCell ref="E398:F398"/>
-    <mergeCell ref="E399:F399"/>
-    <mergeCell ref="E400:F400"/>
-    <mergeCell ref="E401:F401"/>
-    <mergeCell ref="E402:F402"/>
-    <mergeCell ref="E403:F403"/>
-    <mergeCell ref="E404:F404"/>
-    <mergeCell ref="E405:F405"/>
-    <mergeCell ref="E406:F406"/>
-    <mergeCell ref="E407:F407"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="E409:F409"/>
-    <mergeCell ref="E410:F410"/>
-    <mergeCell ref="E411:F411"/>
-    <mergeCell ref="E412:F412"/>
-    <mergeCell ref="E413:F413"/>
-    <mergeCell ref="E421:F421"/>
-    <mergeCell ref="E422:F422"/>
-    <mergeCell ref="E423:F423"/>
-    <mergeCell ref="E414:F414"/>
-    <mergeCell ref="E415:F415"/>
-    <mergeCell ref="E416:F416"/>
-    <mergeCell ref="E417:F417"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E420:F420"/>
-    <mergeCell ref="E337:F337"/>
-    <mergeCell ref="E338:F338"/>
-    <mergeCell ref="E339:F339"/>
-    <mergeCell ref="E340:F340"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="E344:F344"/>
-    <mergeCell ref="E345:F345"/>
-    <mergeCell ref="E346:F346"/>
-    <mergeCell ref="E347:F347"/>
-    <mergeCell ref="E348:F348"/>
-    <mergeCell ref="E349:F349"/>
-    <mergeCell ref="E350:F350"/>
-    <mergeCell ref="E351:F351"/>
-    <mergeCell ref="E352:F352"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="E354:F354"/>
-    <mergeCell ref="E355:F355"/>
-    <mergeCell ref="E356:F356"/>
-    <mergeCell ref="E357:F357"/>
-    <mergeCell ref="E358:F358"/>
-    <mergeCell ref="E359:F359"/>
-    <mergeCell ref="E360:F360"/>
-    <mergeCell ref="E361:F361"/>
-    <mergeCell ref="E362:F362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="E364:F364"/>
-    <mergeCell ref="E365:F365"/>
-    <mergeCell ref="E366:F366"/>
-    <mergeCell ref="E367:F367"/>
-    <mergeCell ref="E368:F368"/>
-    <mergeCell ref="E369:F369"/>
-    <mergeCell ref="E370:F370"/>
-    <mergeCell ref="E371:F371"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="E373:F373"/>
-    <mergeCell ref="E374:F374"/>
-    <mergeCell ref="E375:F375"/>
-    <mergeCell ref="E376:F376"/>
-    <mergeCell ref="E377:F377"/>
-    <mergeCell ref="E378:F378"/>
-    <mergeCell ref="E379:F379"/>
-    <mergeCell ref="E380:F380"/>
-    <mergeCell ref="E381:F381"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="E331:F331"/>
+    <mergeCell ref="E332:F332"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="E334:F334"/>
+    <mergeCell ref="E335:F335"/>
+    <mergeCell ref="E336:F336"/>
+    <mergeCell ref="E320:F320"/>
+    <mergeCell ref="E321:F321"/>
+    <mergeCell ref="E322:F322"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="E324:F324"/>
+    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="E326:F326"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="E311:F311"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="E313:F313"/>
+    <mergeCell ref="E314:F314"/>
+    <mergeCell ref="E315:F315"/>
+    <mergeCell ref="E316:F316"/>
+    <mergeCell ref="E317:F317"/>
+    <mergeCell ref="E318:F318"/>
+    <mergeCell ref="E319:F319"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="E303:F303"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="E305:F305"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="E298:F298"/>
+    <mergeCell ref="E299:F299"/>
+    <mergeCell ref="E300:F300"/>
+    <mergeCell ref="E301:F301"/>
+    <mergeCell ref="E284:F284"/>
+    <mergeCell ref="E285:F285"/>
+    <mergeCell ref="E286:F286"/>
+    <mergeCell ref="E287:F287"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="E291:F291"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="E275:F275"/>
+    <mergeCell ref="E276:F276"/>
+    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="E278:F278"/>
+    <mergeCell ref="E279:F279"/>
+    <mergeCell ref="E280:F280"/>
+    <mergeCell ref="E281:F281"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="E283:F283"/>
+    <mergeCell ref="E266:F266"/>
+    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="E270:F270"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="E272:F272"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="E274:F274"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="E265:F265"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="E252:F252"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="E246:F246"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="E237:F237"/>
+    <mergeCell ref="E238:F238"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E382:F382"/>
     <mergeCell ref="E383:F383"/>
     <mergeCell ref="E384:F384"/>
@@ -29543,329 +29795,89 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="E237:F237"/>
-    <mergeCell ref="E238:F238"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="E240:F240"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="E242:F242"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="E245:F245"/>
-    <mergeCell ref="E246:F246"/>
-    <mergeCell ref="E247:F247"/>
-    <mergeCell ref="E248:F248"/>
-    <mergeCell ref="E249:F249"/>
-    <mergeCell ref="E250:F250"/>
-    <mergeCell ref="E251:F251"/>
-    <mergeCell ref="E252:F252"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="E262:F262"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="E265:F265"/>
-    <mergeCell ref="E266:F266"/>
-    <mergeCell ref="E267:F267"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="E270:F270"/>
-    <mergeCell ref="E271:F271"/>
-    <mergeCell ref="E272:F272"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="E274:F274"/>
-    <mergeCell ref="E275:F275"/>
-    <mergeCell ref="E276:F276"/>
-    <mergeCell ref="E277:F277"/>
-    <mergeCell ref="E278:F278"/>
-    <mergeCell ref="E279:F279"/>
-    <mergeCell ref="E280:F280"/>
-    <mergeCell ref="E281:F281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="E283:F283"/>
-    <mergeCell ref="E284:F284"/>
-    <mergeCell ref="E285:F285"/>
-    <mergeCell ref="E286:F286"/>
-    <mergeCell ref="E287:F287"/>
-    <mergeCell ref="E288:F288"/>
-    <mergeCell ref="E289:F289"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="E291:F291"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="E296:F296"/>
-    <mergeCell ref="E297:F297"/>
-    <mergeCell ref="E298:F298"/>
-    <mergeCell ref="E299:F299"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="E301:F301"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="E304:F304"/>
-    <mergeCell ref="E305:F305"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="E307:F307"/>
-    <mergeCell ref="E308:F308"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="E310:F310"/>
-    <mergeCell ref="E311:F311"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="E313:F313"/>
-    <mergeCell ref="E314:F314"/>
-    <mergeCell ref="E315:F315"/>
-    <mergeCell ref="E316:F316"/>
-    <mergeCell ref="E317:F317"/>
-    <mergeCell ref="E318:F318"/>
-    <mergeCell ref="E319:F319"/>
-    <mergeCell ref="E329:F329"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="E331:F331"/>
-    <mergeCell ref="E332:F332"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="E334:F334"/>
-    <mergeCell ref="E335:F335"/>
-    <mergeCell ref="E336:F336"/>
-    <mergeCell ref="E320:F320"/>
-    <mergeCell ref="E321:F321"/>
-    <mergeCell ref="E322:F322"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="E324:F324"/>
-    <mergeCell ref="E325:F325"/>
-    <mergeCell ref="E326:F326"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="E373:F373"/>
+    <mergeCell ref="E374:F374"/>
+    <mergeCell ref="E375:F375"/>
+    <mergeCell ref="E376:F376"/>
+    <mergeCell ref="E377:F377"/>
+    <mergeCell ref="E378:F378"/>
+    <mergeCell ref="E379:F379"/>
+    <mergeCell ref="E380:F380"/>
+    <mergeCell ref="E381:F381"/>
+    <mergeCell ref="E364:F364"/>
+    <mergeCell ref="E365:F365"/>
+    <mergeCell ref="E366:F366"/>
+    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="E368:F368"/>
+    <mergeCell ref="E369:F369"/>
+    <mergeCell ref="E370:F370"/>
+    <mergeCell ref="E371:F371"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="E355:F355"/>
+    <mergeCell ref="E356:F356"/>
+    <mergeCell ref="E357:F357"/>
+    <mergeCell ref="E358:F358"/>
+    <mergeCell ref="E359:F359"/>
+    <mergeCell ref="E360:F360"/>
+    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="E362:F362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="E347:F347"/>
+    <mergeCell ref="E348:F348"/>
+    <mergeCell ref="E349:F349"/>
+    <mergeCell ref="E350:F350"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="E352:F352"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="E354:F354"/>
+    <mergeCell ref="E337:F337"/>
+    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="E339:F339"/>
+    <mergeCell ref="E340:F340"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="E413:F413"/>
+    <mergeCell ref="E421:F421"/>
+    <mergeCell ref="E422:F422"/>
+    <mergeCell ref="E423:F423"/>
+    <mergeCell ref="E414:F414"/>
+    <mergeCell ref="E415:F415"/>
+    <mergeCell ref="E416:F416"/>
+    <mergeCell ref="E417:F417"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E420:F420"/>
+    <mergeCell ref="E404:F404"/>
+    <mergeCell ref="E405:F405"/>
+    <mergeCell ref="E406:F406"/>
+    <mergeCell ref="E407:F407"/>
+    <mergeCell ref="E408:F408"/>
+    <mergeCell ref="E409:F409"/>
+    <mergeCell ref="E410:F410"/>
+    <mergeCell ref="E411:F411"/>
+    <mergeCell ref="E412:F412"/>
+    <mergeCell ref="E395:F395"/>
+    <mergeCell ref="E396:F396"/>
+    <mergeCell ref="E397:F397"/>
+    <mergeCell ref="E398:F398"/>
+    <mergeCell ref="E399:F399"/>
+    <mergeCell ref="E400:F400"/>
+    <mergeCell ref="E401:F401"/>
+    <mergeCell ref="E402:F402"/>
+    <mergeCell ref="E403:F403"/>
+    <mergeCell ref="E386:F386"/>
+    <mergeCell ref="E387:F387"/>
+    <mergeCell ref="E388:F388"/>
+    <mergeCell ref="E389:F389"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="E391:F391"/>
+    <mergeCell ref="E392:F392"/>
+    <mergeCell ref="E393:F393"/>
+    <mergeCell ref="E394:F394"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Template Casos de Prueba - Grupo 1.xlsx
+++ b/Testing/Template Casos de Prueba - Grupo 1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Proyecto final\grupo-01\Testing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D725865-1EFF-411F-8091-0FFDFB6AE118}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="209">
   <si>
     <t>Id</t>
   </si>
@@ -537,12 +531,123 @@
   <si>
     <t>Prueba de Integracion</t>
   </si>
+  <si>
+    <t>Verificar funcionamiento del boton "reservar"</t>
+  </si>
+  <si>
+    <t>1- Entrar a la pagina 2-Hacer click en un producto 3- Seleccionar determinadas fechas en el calendario 4-Reservar dichas fechas 4- Redireccionamiento de pagina</t>
+  </si>
+  <si>
+    <t>CP-28</t>
+  </si>
+  <si>
+    <t>CP-29</t>
+  </si>
+  <si>
+    <t>El boton reservar deberia chequear si la persona usuaria esta logueada</t>
+  </si>
+  <si>
+    <t>Al hacer click en el boton reservar el redireccionamiento dependera si el usuario esta logueado o no</t>
+  </si>
+  <si>
+    <t>1- Entrar a la pagina 2-Hacer click en un producto 3-Seleccionar determinadas fechas en el calendario 4-Hacer click en el boton "reservar"</t>
+  </si>
+  <si>
+    <t>CP-30</t>
+  </si>
+  <si>
+    <t>Verificar funcionamiento del boton "reservar" en usuario NO logueado</t>
+  </si>
+  <si>
+    <t>El boton reservar deberia detectar a los usuarios no logueados</t>
+  </si>
+  <si>
+    <t>Al hacer click en el boton reservar se tiene que redirigir al bloque login</t>
+  </si>
+  <si>
+    <t>1-Entrar a la pagina 2-Hacer click en un producto 3-Seleccionar determinadas fechas en calendario 4-Hacer click en el boton reservar 5-Redireccionamiento al bloque login</t>
+  </si>
+  <si>
+    <t>CP-31</t>
+  </si>
+  <si>
+    <t>Verificar funcionamiento del boton "reservar" en usuario logueado</t>
+  </si>
+  <si>
+    <t>Al hacer click en el boton reservar se tiene que redirigir a la ruta /producto/id:/reserva</t>
+  </si>
+  <si>
+    <t>Testear redireccionamiento al bloque login</t>
+  </si>
+  <si>
+    <t>El boton reservar deberia detectar a los usuarios logueados</t>
+  </si>
+  <si>
+    <t>El bloque loguin deberia mostrar un mesaje de "login obligatorio" y luego opcion para loguearse y/o registrarse</t>
+  </si>
+  <si>
+    <t>Se debe acceder al bloque loguin</t>
+  </si>
+  <si>
+    <t>CP-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar datos de usuario despues de haberse logueado </t>
+  </si>
+  <si>
+    <t>Una vez que el usuario realiza la peticion para hacer la reserva, se loguea, debe aparecer sus datos en la esquina superior derecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Entrar a la pagina 2-Hacer click en un producto 3-Seleccionar determinadas fechas en calendario 4-Hacer click en el boton reservar 5-Redireccionamiento al bloque login 6-Loguearse </t>
+  </si>
+  <si>
+    <t>CP-33</t>
+  </si>
+  <si>
+    <t>Verificar  funcionamiento de boton "cerrar sesion"</t>
+  </si>
+  <si>
+    <t>Debera desaparecer los datos de la esquina superior derecha, y reaparecer botones de iniciar sesion y registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debe estar logueado </t>
+  </si>
+  <si>
+    <t>1-Entrar a la pagina 2-Hacer click en un producto 3-Seleccionar determinadas fechas en calendario 4-Hacer click en el boton reservar 5-Redireccionamiento al bloque login 6-Loguearse  7-Desloguearse</t>
+  </si>
+  <si>
+    <t>CP-34</t>
+  </si>
+  <si>
+    <t>Verificar funcionamiento de boton "confirmar reserva"</t>
+  </si>
+  <si>
+    <t>Debera aparecer un modal de "reserva exitosa"</t>
+  </si>
+  <si>
+    <t>Se debe haber completado todos los campos en la ruta /producto/id:/reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Entrar a la pagina 2-hacer click en producto 3-Completar todos los campos 4-Click en boton "confirmar reserva" </t>
+  </si>
+  <si>
+    <t>CP-35</t>
+  </si>
+  <si>
+    <t>El boton login solo podra habilitarse cuando todos los campos se hayan completado correctamente</t>
+  </si>
+  <si>
+    <t>Si alguno de los campos esta incompleto el boton no deberia mostrarse habilitado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Entrar a la pagina 2-hacer click en producto 3- dejar algun campo incompleto 4- click en boton "confirmar reserva" </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -568,6 +673,14 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -675,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -698,10 +811,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -711,6 +824,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,14 +1044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -941,7 +1060,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -985,7 +1104,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1029,10 +1148,10 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1075,10 +1194,10 @@
       <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1121,10 +1240,10 @@
       <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1167,10 +1286,10 @@
       <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
@@ -1213,10 +1332,10 @@
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
@@ -1259,10 +1378,10 @@
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1305,10 +1424,10 @@
       <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1351,10 +1470,10 @@
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1397,10 +1516,10 @@
       <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
@@ -1443,10 +1562,10 @@
       <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="3" t="s">
         <v>62</v>
       </c>
@@ -1489,10 +1608,10 @@
       <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="3" t="s">
         <v>67</v>
       </c>
@@ -1535,10 +1654,10 @@
       <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="3" t="s">
         <v>72</v>
       </c>
@@ -1581,10 +1700,10 @@
       <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="3" t="s">
         <v>77</v>
       </c>
@@ -1627,10 +1746,10 @@
       <c r="D16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1" t="s">
         <v>103</v>
       </c>
@@ -1673,10 +1792,10 @@
       <c r="D17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1" t="s">
         <v>111</v>
       </c>
@@ -1719,10 +1838,10 @@
       <c r="D18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1" t="s">
         <v>115</v>
       </c>
@@ -1765,10 +1884,10 @@
       <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1" t="s">
         <v>123</v>
       </c>
@@ -1811,10 +1930,10 @@
       <c r="D20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="6" t="s">
         <v>126</v>
       </c>
@@ -1857,10 +1976,10 @@
       <c r="D21" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="1" t="s">
         <v>131</v>
       </c>
@@ -1903,10 +2022,10 @@
       <c r="D22" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
         <v>77</v>
       </c>
@@ -1949,10 +2068,10 @@
       <c r="D23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="1" t="s">
         <v>139</v>
       </c>
@@ -1995,10 +2114,10 @@
       <c r="D24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="6" t="s">
         <v>139</v>
       </c>
@@ -2041,10 +2160,10 @@
       <c r="D25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="1" t="s">
         <v>150</v>
       </c>
@@ -2087,10 +2206,10 @@
       <c r="D26" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="1" t="s">
         <v>154</v>
       </c>
@@ -2133,10 +2252,10 @@
       <c r="D27" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="1" t="s">
         <v>158</v>
       </c>
@@ -2179,10 +2298,10 @@
       <c r="D28" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="1" t="s">
         <v>163</v>
       </c>
@@ -2225,10 +2344,10 @@
       <c r="D29" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="6" t="s">
         <v>163</v>
       </c>
@@ -2263,8 +2382,8 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2287,12 +2406,22 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
+      <c r="A31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2315,12 +2444,22 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
+      <c r="A32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2343,12 +2482,22 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
+      <c r="A33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2371,12 +2520,22 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2399,12 +2558,22 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2427,12 +2596,22 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2455,12 +2634,22 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
+      <c r="A37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2483,12 +2672,22 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
+      <c r="A38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2511,12 +2710,12 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2543,8 +2742,8 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2571,8 +2770,8 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2599,8 +2798,8 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2627,8 +2826,8 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2655,8 +2854,8 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2683,8 +2882,8 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2711,8 +2910,8 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2739,8 +2938,8 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2767,8 +2966,8 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2795,8 +2994,8 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2823,8 +3022,8 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2851,8 +3050,8 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2879,8 +3078,8 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2907,8 +3106,8 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2935,8 +3134,8 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2963,8 +3162,8 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2991,8 +3190,8 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3019,8 +3218,8 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3047,8 +3246,8 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3075,8 +3274,8 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3103,8 +3302,8 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3131,8 +3330,8 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3159,8 +3358,8 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3187,8 +3386,8 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3215,8 +3414,8 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3243,8 +3442,8 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3271,8 +3470,8 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3299,8 +3498,8 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3327,8 +3526,8 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3355,8 +3554,8 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3383,8 +3582,8 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3411,8 +3610,8 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3439,8 +3638,8 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3467,8 +3666,8 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -3495,8 +3694,8 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3523,8 +3722,8 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3551,8 +3750,8 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3579,8 +3778,8 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="9"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3607,8 +3806,8 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="9"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3635,8 +3834,8 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -3663,8 +3862,8 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -3691,8 +3890,8 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -3719,8 +3918,8 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -3747,8 +3946,8 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3775,8 +3974,8 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -3803,8 +4002,8 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -3831,8 +4030,8 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -3859,8 +4058,8 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -3887,8 +4086,8 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -3915,8 +4114,8 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -3943,8 +4142,8 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -3971,8 +4170,8 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -3999,8 +4198,8 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="9"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -4027,8 +4226,8 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -4055,8 +4254,8 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="9"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -4083,8 +4282,8 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -4111,8 +4310,8 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -4139,8 +4338,8 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4167,8 +4366,8 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -4195,8 +4394,8 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -4223,8 +4422,8 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -4251,8 +4450,8 @@
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4279,8 +4478,8 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -4307,8 +4506,8 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4335,8 +4534,8 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -4363,8 +4562,8 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4391,8 +4590,8 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -4419,8 +4618,8 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -4447,8 +4646,8 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -4475,8 +4674,8 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="9"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -4503,8 +4702,8 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="9"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -4531,8 +4730,8 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="9"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -4559,8 +4758,8 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -4587,8 +4786,8 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="9"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -4615,8 +4814,8 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -4643,8 +4842,8 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="9"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -4671,8 +4870,8 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="9"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -4699,8 +4898,8 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="9"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -4727,8 +4926,8 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="9"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4755,8 +4954,8 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="9"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4783,8 +4982,8 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="9"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4811,8 +5010,8 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="9"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4839,8 +5038,8 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="9"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -4867,8 +5066,8 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="9"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -4895,8 +5094,8 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="9"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4923,8 +5122,8 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="9"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4951,8 +5150,8 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="9"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4979,8 +5178,8 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="9"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -5007,8 +5206,8 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="9"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -5035,8 +5234,8 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="9"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -5063,8 +5262,8 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="9"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -5091,8 +5290,8 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="9"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -5119,8 +5318,8 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="9"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -5147,8 +5346,8 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="9"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -5175,8 +5374,8 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="9"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -5203,8 +5402,8 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="9"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -5231,8 +5430,8 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="9"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -5259,8 +5458,8 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="9"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -5287,8 +5486,8 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="9"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -5315,8 +5514,8 @@
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="9"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -5343,8 +5542,8 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="9"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -5371,8 +5570,8 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="9"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -5399,8 +5598,8 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="9"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -5427,8 +5626,8 @@
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="9"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -5455,8 +5654,8 @@
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="9"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -5483,8 +5682,8 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="9"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -5511,8 +5710,8 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="9"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -5539,8 +5738,8 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="9"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -5567,8 +5766,8 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="9"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -5595,8 +5794,8 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="9"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5623,8 +5822,8 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="9"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5651,8 +5850,8 @@
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="9"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5679,8 +5878,8 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="9"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -5707,8 +5906,8 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="9"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -5735,8 +5934,8 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="9"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -5763,8 +5962,8 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="9"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -5791,8 +5990,8 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="9"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5819,8 +6018,8 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="9"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5847,8 +6046,8 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="9"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -5875,8 +6074,8 @@
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="9"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -5903,8 +6102,8 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="9"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -5931,8 +6130,8 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="9"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -5959,8 +6158,8 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="9"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -5987,8 +6186,8 @@
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="9"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -6015,8 +6214,8 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="9"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -6043,8 +6242,8 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="9"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -6071,8 +6270,8 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="9"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -6099,8 +6298,8 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="9"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -6127,8 +6326,8 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="9"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -6155,8 +6354,8 @@
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="9"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -6183,8 +6382,8 @@
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="9"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -6211,8 +6410,8 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="9"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -6239,8 +6438,8 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="9"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -6267,8 +6466,8 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="9"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -6295,8 +6494,8 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="9"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -6323,8 +6522,8 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="9"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -6351,8 +6550,8 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="9"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6379,8 +6578,8 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="9"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -6407,8 +6606,8 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="9"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -6435,8 +6634,8 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="9"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -6463,8 +6662,8 @@
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="9"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -6491,8 +6690,8 @@
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="9"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -6519,8 +6718,8 @@
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="9"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -6547,8 +6746,8 @@
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="9"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -6575,8 +6774,8 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="9"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6603,8 +6802,8 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="9"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6631,8 +6830,8 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="9"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -6659,8 +6858,8 @@
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="9"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -6687,8 +6886,8 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="9"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -6715,8 +6914,8 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="9"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -6743,8 +6942,8 @@
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="9"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -6771,8 +6970,8 @@
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="9"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -6799,8 +6998,8 @@
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="8"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="9"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -6827,8 +7026,8 @@
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="9"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -6855,8 +7054,8 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="8"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="9"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -6883,8 +7082,8 @@
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="8"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="9"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -6911,8 +7110,8 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="9"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -6939,8 +7138,8 @@
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="9"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -6967,8 +7166,8 @@
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="9"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -6995,8 +7194,8 @@
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="8"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="9"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -7023,8 +7222,8 @@
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="8"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="9"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -7051,8 +7250,8 @@
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="9"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
@@ -7079,8 +7278,8 @@
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="8"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="9"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
@@ -7107,8 +7306,8 @@
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="9"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
@@ -7135,8 +7334,8 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="7"/>
-      <c r="F204" s="8"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="9"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -7163,8 +7362,8 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="8"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="9"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -7191,8 +7390,8 @@
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="8"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="9"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -7219,8 +7418,8 @@
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="9"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -7247,8 +7446,8 @@
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="8"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="9"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -7275,8 +7474,8 @@
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="7"/>
-      <c r="F209" s="8"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="9"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -7303,8 +7502,8 @@
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="8"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="9"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -7331,8 +7530,8 @@
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="7"/>
-      <c r="F211" s="8"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="9"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -7359,8 +7558,8 @@
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="7"/>
-      <c r="F212" s="8"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="9"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -7387,8 +7586,8 @@
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="8"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="9"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -7415,8 +7614,8 @@
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="8"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="9"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -7443,8 +7642,8 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="8"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="9"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -7471,8 +7670,8 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="7"/>
-      <c r="F216" s="8"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="9"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -7499,8 +7698,8 @@
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="8"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="9"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -7527,8 +7726,8 @@
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="8"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="9"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -7555,8 +7754,8 @@
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="8"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="9"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
@@ -7583,8 +7782,8 @@
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="8"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="9"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -7611,8 +7810,8 @@
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="8"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="9"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -7639,8 +7838,8 @@
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="7"/>
-      <c r="F222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="9"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
@@ -7667,8 +7866,8 @@
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="9"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
@@ -7695,8 +7894,8 @@
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="8"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="9"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
@@ -7723,8 +7922,8 @@
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="7"/>
-      <c r="F225" s="8"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="9"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
@@ -7751,8 +7950,8 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="8"/>
+      <c r="E226" s="8"/>
+      <c r="F226" s="9"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
@@ -7779,8 +7978,8 @@
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="8"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="9"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
@@ -7807,8 +8006,8 @@
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="8"/>
+      <c r="E228" s="8"/>
+      <c r="F228" s="9"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -7835,8 +8034,8 @@
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="8"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="9"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
@@ -7863,8 +8062,8 @@
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="8"/>
+      <c r="E230" s="8"/>
+      <c r="F230" s="9"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -7891,8 +8090,8 @@
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="8"/>
+      <c r="E231" s="8"/>
+      <c r="F231" s="9"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
@@ -7919,8 +8118,8 @@
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="7"/>
-      <c r="F232" s="8"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="9"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
@@ -7947,8 +8146,8 @@
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="8"/>
+      <c r="E233" s="8"/>
+      <c r="F233" s="9"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
@@ -7975,8 +8174,8 @@
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="7"/>
-      <c r="F234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="9"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -8003,8 +8202,8 @@
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="7"/>
-      <c r="F235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="9"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -8031,8 +8230,8 @@
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="9"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -8059,8 +8258,8 @@
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
-      <c r="E237" s="7"/>
-      <c r="F237" s="8"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="9"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -8087,8 +8286,8 @@
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="7"/>
-      <c r="F238" s="8"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="9"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -8115,8 +8314,8 @@
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
-      <c r="E239" s="7"/>
-      <c r="F239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="9"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -8143,8 +8342,8 @@
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="9"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -8171,8 +8370,8 @@
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="7"/>
-      <c r="F241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="9"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -8199,8 +8398,8 @@
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
-      <c r="E242" s="7"/>
-      <c r="F242" s="8"/>
+      <c r="E242" s="8"/>
+      <c r="F242" s="9"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -8227,8 +8426,8 @@
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
-      <c r="E243" s="7"/>
-      <c r="F243" s="8"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="9"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -8255,8 +8454,8 @@
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="7"/>
-      <c r="F244" s="8"/>
+      <c r="E244" s="8"/>
+      <c r="F244" s="9"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -8283,8 +8482,8 @@
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="7"/>
-      <c r="F245" s="8"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="9"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
@@ -8311,8 +8510,8 @@
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
-      <c r="E246" s="7"/>
-      <c r="F246" s="8"/>
+      <c r="E246" s="8"/>
+      <c r="F246" s="9"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
@@ -8339,8 +8538,8 @@
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="7"/>
-      <c r="F247" s="8"/>
+      <c r="E247" s="8"/>
+      <c r="F247" s="9"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
@@ -8367,8 +8566,8 @@
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="7"/>
-      <c r="F248" s="8"/>
+      <c r="E248" s="8"/>
+      <c r="F248" s="9"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
@@ -8395,8 +8594,8 @@
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="8"/>
+      <c r="E249" s="8"/>
+      <c r="F249" s="9"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
@@ -8423,8 +8622,8 @@
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
-      <c r="E250" s="7"/>
-      <c r="F250" s="8"/>
+      <c r="E250" s="8"/>
+      <c r="F250" s="9"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
@@ -8451,8 +8650,8 @@
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
-      <c r="E251" s="7"/>
-      <c r="F251" s="8"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="9"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
@@ -8479,8 +8678,8 @@
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
-      <c r="E252" s="7"/>
-      <c r="F252" s="8"/>
+      <c r="E252" s="8"/>
+      <c r="F252" s="9"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
@@ -8507,8 +8706,8 @@
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="7"/>
-      <c r="F253" s="8"/>
+      <c r="E253" s="8"/>
+      <c r="F253" s="9"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
@@ -8535,8 +8734,8 @@
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="7"/>
-      <c r="F254" s="8"/>
+      <c r="E254" s="8"/>
+      <c r="F254" s="9"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
@@ -8563,8 +8762,8 @@
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
-      <c r="E255" s="7"/>
-      <c r="F255" s="8"/>
+      <c r="E255" s="8"/>
+      <c r="F255" s="9"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
@@ -8591,8 +8790,8 @@
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="7"/>
-      <c r="F256" s="8"/>
+      <c r="E256" s="8"/>
+      <c r="F256" s="9"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
@@ -8619,8 +8818,8 @@
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
-      <c r="E257" s="7"/>
-      <c r="F257" s="8"/>
+      <c r="E257" s="8"/>
+      <c r="F257" s="9"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
@@ -8647,8 +8846,8 @@
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
-      <c r="E258" s="7"/>
-      <c r="F258" s="8"/>
+      <c r="E258" s="8"/>
+      <c r="F258" s="9"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
@@ -8675,8 +8874,8 @@
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
-      <c r="E259" s="7"/>
-      <c r="F259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="9"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
@@ -8703,8 +8902,8 @@
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
-      <c r="E260" s="7"/>
-      <c r="F260" s="8"/>
+      <c r="E260" s="8"/>
+      <c r="F260" s="9"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
@@ -8731,8 +8930,8 @@
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="7"/>
-      <c r="F261" s="8"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="9"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
@@ -8759,8 +8958,8 @@
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="7"/>
-      <c r="F262" s="8"/>
+      <c r="E262" s="8"/>
+      <c r="F262" s="9"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
@@ -8787,8 +8986,8 @@
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
-      <c r="E263" s="7"/>
-      <c r="F263" s="8"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="9"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
@@ -8815,8 +9014,8 @@
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
-      <c r="E264" s="7"/>
-      <c r="F264" s="8"/>
+      <c r="E264" s="8"/>
+      <c r="F264" s="9"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -8843,8 +9042,8 @@
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
-      <c r="E265" s="7"/>
-      <c r="F265" s="8"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="9"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -8871,8 +9070,8 @@
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
-      <c r="E266" s="7"/>
-      <c r="F266" s="8"/>
+      <c r="E266" s="8"/>
+      <c r="F266" s="9"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -8899,8 +9098,8 @@
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="7"/>
-      <c r="F267" s="8"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="9"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -8927,8 +9126,8 @@
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
-      <c r="E268" s="7"/>
-      <c r="F268" s="8"/>
+      <c r="E268" s="8"/>
+      <c r="F268" s="9"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
@@ -8955,8 +9154,8 @@
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="7"/>
-      <c r="F269" s="8"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="9"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
@@ -8983,8 +9182,8 @@
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="7"/>
-      <c r="F270" s="8"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="9"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
@@ -9011,8 +9210,8 @@
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
-      <c r="E271" s="7"/>
-      <c r="F271" s="8"/>
+      <c r="E271" s="8"/>
+      <c r="F271" s="9"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
@@ -9039,8 +9238,8 @@
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="7"/>
-      <c r="F272" s="8"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="9"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
@@ -9067,8 +9266,8 @@
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
-      <c r="E273" s="7"/>
-      <c r="F273" s="8"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="9"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
@@ -9095,8 +9294,8 @@
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="7"/>
-      <c r="F274" s="8"/>
+      <c r="E274" s="8"/>
+      <c r="F274" s="9"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
@@ -9123,8 +9322,8 @@
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
-      <c r="E275" s="7"/>
-      <c r="F275" s="8"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="9"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
@@ -9151,8 +9350,8 @@
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="7"/>
-      <c r="F276" s="8"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="9"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
@@ -9179,8 +9378,8 @@
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
-      <c r="E277" s="7"/>
-      <c r="F277" s="8"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="9"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
@@ -9207,8 +9406,8 @@
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
-      <c r="E278" s="7"/>
-      <c r="F278" s="8"/>
+      <c r="E278" s="8"/>
+      <c r="F278" s="9"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
@@ -9235,8 +9434,8 @@
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
-      <c r="E279" s="7"/>
-      <c r="F279" s="8"/>
+      <c r="E279" s="8"/>
+      <c r="F279" s="9"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
@@ -9263,8 +9462,8 @@
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
-      <c r="E280" s="7"/>
-      <c r="F280" s="8"/>
+      <c r="E280" s="8"/>
+      <c r="F280" s="9"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
@@ -9291,8 +9490,8 @@
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
-      <c r="E281" s="7"/>
-      <c r="F281" s="8"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="9"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
@@ -9319,8 +9518,8 @@
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
-      <c r="E282" s="7"/>
-      <c r="F282" s="8"/>
+      <c r="E282" s="8"/>
+      <c r="F282" s="9"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
@@ -9347,8 +9546,8 @@
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="7"/>
-      <c r="F283" s="8"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="9"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
@@ -9375,8 +9574,8 @@
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
-      <c r="E284" s="7"/>
-      <c r="F284" s="8"/>
+      <c r="E284" s="8"/>
+      <c r="F284" s="9"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
@@ -9403,8 +9602,8 @@
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="7"/>
-      <c r="F285" s="8"/>
+      <c r="E285" s="8"/>
+      <c r="F285" s="9"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
@@ -9431,8 +9630,8 @@
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
-      <c r="E286" s="7"/>
-      <c r="F286" s="8"/>
+      <c r="E286" s="8"/>
+      <c r="F286" s="9"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
@@ -9459,8 +9658,8 @@
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
-      <c r="E287" s="7"/>
-      <c r="F287" s="8"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="9"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
@@ -9487,8 +9686,8 @@
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
-      <c r="E288" s="7"/>
-      <c r="F288" s="8"/>
+      <c r="E288" s="8"/>
+      <c r="F288" s="9"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
@@ -9515,8 +9714,8 @@
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="7"/>
-      <c r="F289" s="8"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="9"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
@@ -9543,8 +9742,8 @@
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="7"/>
-      <c r="F290" s="8"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="9"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
@@ -9571,8 +9770,8 @@
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
-      <c r="E291" s="7"/>
-      <c r="F291" s="8"/>
+      <c r="E291" s="8"/>
+      <c r="F291" s="9"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
@@ -9599,8 +9798,8 @@
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
-      <c r="E292" s="7"/>
-      <c r="F292" s="8"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="9"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
@@ -9627,8 +9826,8 @@
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
-      <c r="E293" s="7"/>
-      <c r="F293" s="8"/>
+      <c r="E293" s="8"/>
+      <c r="F293" s="9"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -9655,8 +9854,8 @@
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
-      <c r="E294" s="7"/>
-      <c r="F294" s="8"/>
+      <c r="E294" s="8"/>
+      <c r="F294" s="9"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
@@ -9683,8 +9882,8 @@
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
-      <c r="E295" s="7"/>
-      <c r="F295" s="8"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="9"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
@@ -9711,8 +9910,8 @@
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
-      <c r="E296" s="7"/>
-      <c r="F296" s="8"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="9"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
@@ -9739,8 +9938,8 @@
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="7"/>
-      <c r="F297" s="8"/>
+      <c r="E297" s="8"/>
+      <c r="F297" s="9"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
@@ -9767,8 +9966,8 @@
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
-      <c r="E298" s="7"/>
-      <c r="F298" s="8"/>
+      <c r="E298" s="8"/>
+      <c r="F298" s="9"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
@@ -9795,8 +9994,8 @@
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
-      <c r="E299" s="7"/>
-      <c r="F299" s="8"/>
+      <c r="E299" s="8"/>
+      <c r="F299" s="9"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
@@ -9823,8 +10022,8 @@
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
-      <c r="E300" s="7"/>
-      <c r="F300" s="8"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="9"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
@@ -9851,8 +10050,8 @@
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
-      <c r="E301" s="7"/>
-      <c r="F301" s="8"/>
+      <c r="E301" s="8"/>
+      <c r="F301" s="9"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
@@ -9879,8 +10078,8 @@
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
-      <c r="E302" s="7"/>
-      <c r="F302" s="8"/>
+      <c r="E302" s="8"/>
+      <c r="F302" s="9"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
@@ -9907,8 +10106,8 @@
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
-      <c r="E303" s="7"/>
-      <c r="F303" s="8"/>
+      <c r="E303" s="8"/>
+      <c r="F303" s="9"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
@@ -9935,8 +10134,8 @@
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="7"/>
-      <c r="F304" s="8"/>
+      <c r="E304" s="8"/>
+      <c r="F304" s="9"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
@@ -9963,8 +10162,8 @@
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
-      <c r="E305" s="7"/>
-      <c r="F305" s="8"/>
+      <c r="E305" s="8"/>
+      <c r="F305" s="9"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
@@ -9991,8 +10190,8 @@
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
-      <c r="E306" s="7"/>
-      <c r="F306" s="8"/>
+      <c r="E306" s="8"/>
+      <c r="F306" s="9"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
@@ -10019,8 +10218,8 @@
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
-      <c r="E307" s="7"/>
-      <c r="F307" s="8"/>
+      <c r="E307" s="8"/>
+      <c r="F307" s="9"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
@@ -10047,8 +10246,8 @@
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
-      <c r="E308" s="7"/>
-      <c r="F308" s="8"/>
+      <c r="E308" s="8"/>
+      <c r="F308" s="9"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
@@ -10075,8 +10274,8 @@
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
-      <c r="E309" s="7"/>
-      <c r="F309" s="8"/>
+      <c r="E309" s="8"/>
+      <c r="F309" s="9"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
@@ -10103,8 +10302,8 @@
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
-      <c r="E310" s="7"/>
-      <c r="F310" s="8"/>
+      <c r="E310" s="8"/>
+      <c r="F310" s="9"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
@@ -10131,8 +10330,8 @@
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="7"/>
-      <c r="F311" s="8"/>
+      <c r="E311" s="8"/>
+      <c r="F311" s="9"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
@@ -10159,8 +10358,8 @@
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
-      <c r="E312" s="7"/>
-      <c r="F312" s="8"/>
+      <c r="E312" s="8"/>
+      <c r="F312" s="9"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
@@ -10187,8 +10386,8 @@
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
-      <c r="E313" s="7"/>
-      <c r="F313" s="8"/>
+      <c r="E313" s="8"/>
+      <c r="F313" s="9"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
@@ -10215,8 +10414,8 @@
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
-      <c r="E314" s="7"/>
-      <c r="F314" s="8"/>
+      <c r="E314" s="8"/>
+      <c r="F314" s="9"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
@@ -10243,8 +10442,8 @@
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
-      <c r="E315" s="7"/>
-      <c r="F315" s="8"/>
+      <c r="E315" s="8"/>
+      <c r="F315" s="9"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
@@ -10271,8 +10470,8 @@
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
-      <c r="E316" s="7"/>
-      <c r="F316" s="8"/>
+      <c r="E316" s="8"/>
+      <c r="F316" s="9"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
@@ -10299,8 +10498,8 @@
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
-      <c r="E317" s="7"/>
-      <c r="F317" s="8"/>
+      <c r="E317" s="8"/>
+      <c r="F317" s="9"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
@@ -10327,8 +10526,8 @@
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="7"/>
-      <c r="F318" s="8"/>
+      <c r="E318" s="8"/>
+      <c r="F318" s="9"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
@@ -10355,8 +10554,8 @@
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
-      <c r="E319" s="7"/>
-      <c r="F319" s="8"/>
+      <c r="E319" s="8"/>
+      <c r="F319" s="9"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
@@ -10383,8 +10582,8 @@
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
-      <c r="E320" s="7"/>
-      <c r="F320" s="8"/>
+      <c r="E320" s="8"/>
+      <c r="F320" s="9"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
@@ -10411,8 +10610,8 @@
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
-      <c r="E321" s="7"/>
-      <c r="F321" s="8"/>
+      <c r="E321" s="8"/>
+      <c r="F321" s="9"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
@@ -10439,8 +10638,8 @@
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
-      <c r="E322" s="7"/>
-      <c r="F322" s="8"/>
+      <c r="E322" s="8"/>
+      <c r="F322" s="9"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
@@ -10467,8 +10666,8 @@
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
-      <c r="E323" s="7"/>
-      <c r="F323" s="8"/>
+      <c r="E323" s="8"/>
+      <c r="F323" s="9"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
@@ -10495,8 +10694,8 @@
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
-      <c r="E324" s="7"/>
-      <c r="F324" s="8"/>
+      <c r="E324" s="8"/>
+      <c r="F324" s="9"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
@@ -10523,8 +10722,8 @@
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="7"/>
-      <c r="F325" s="8"/>
+      <c r="E325" s="8"/>
+      <c r="F325" s="9"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
@@ -10551,8 +10750,8 @@
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
-      <c r="E326" s="7"/>
-      <c r="F326" s="8"/>
+      <c r="E326" s="8"/>
+      <c r="F326" s="9"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
@@ -10579,8 +10778,8 @@
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
-      <c r="E327" s="7"/>
-      <c r="F327" s="8"/>
+      <c r="E327" s="8"/>
+      <c r="F327" s="9"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -10607,8 +10806,8 @@
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
-      <c r="E328" s="7"/>
-      <c r="F328" s="8"/>
+      <c r="E328" s="8"/>
+      <c r="F328" s="9"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
@@ -10635,8 +10834,8 @@
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
-      <c r="E329" s="7"/>
-      <c r="F329" s="8"/>
+      <c r="E329" s="8"/>
+      <c r="F329" s="9"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
@@ -10663,8 +10862,8 @@
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
-      <c r="E330" s="7"/>
-      <c r="F330" s="8"/>
+      <c r="E330" s="8"/>
+      <c r="F330" s="9"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
@@ -10691,8 +10890,8 @@
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
-      <c r="E331" s="7"/>
-      <c r="F331" s="8"/>
+      <c r="E331" s="8"/>
+      <c r="F331" s="9"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
@@ -10719,8 +10918,8 @@
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
-      <c r="E332" s="7"/>
-      <c r="F332" s="8"/>
+      <c r="E332" s="8"/>
+      <c r="F332" s="9"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
@@ -10747,8 +10946,8 @@
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
-      <c r="E333" s="7"/>
-      <c r="F333" s="8"/>
+      <c r="E333" s="8"/>
+      <c r="F333" s="9"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
@@ -10775,8 +10974,8 @@
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
-      <c r="E334" s="7"/>
-      <c r="F334" s="8"/>
+      <c r="E334" s="8"/>
+      <c r="F334" s="9"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
@@ -10803,8 +11002,8 @@
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
-      <c r="E335" s="7"/>
-      <c r="F335" s="8"/>
+      <c r="E335" s="8"/>
+      <c r="F335" s="9"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
@@ -10831,8 +11030,8 @@
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
-      <c r="E336" s="7"/>
-      <c r="F336" s="8"/>
+      <c r="E336" s="8"/>
+      <c r="F336" s="9"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
@@ -10859,8 +11058,8 @@
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
-      <c r="E337" s="7"/>
-      <c r="F337" s="8"/>
+      <c r="E337" s="8"/>
+      <c r="F337" s="9"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
@@ -10887,8 +11086,8 @@
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
-      <c r="E338" s="7"/>
-      <c r="F338" s="8"/>
+      <c r="E338" s="8"/>
+      <c r="F338" s="9"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
@@ -10915,8 +11114,8 @@
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
-      <c r="E339" s="7"/>
-      <c r="F339" s="8"/>
+      <c r="E339" s="8"/>
+      <c r="F339" s="9"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
@@ -10943,8 +11142,8 @@
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
-      <c r="E340" s="7"/>
-      <c r="F340" s="8"/>
+      <c r="E340" s="8"/>
+      <c r="F340" s="9"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
@@ -10971,8 +11170,8 @@
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
-      <c r="E341" s="7"/>
-      <c r="F341" s="8"/>
+      <c r="E341" s="8"/>
+      <c r="F341" s="9"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
@@ -10999,8 +11198,8 @@
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
-      <c r="E342" s="7"/>
-      <c r="F342" s="8"/>
+      <c r="E342" s="8"/>
+      <c r="F342" s="9"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
@@ -11027,8 +11226,8 @@
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
-      <c r="E343" s="7"/>
-      <c r="F343" s="8"/>
+      <c r="E343" s="8"/>
+      <c r="F343" s="9"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
@@ -11055,8 +11254,8 @@
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
-      <c r="E344" s="7"/>
-      <c r="F344" s="8"/>
+      <c r="E344" s="8"/>
+      <c r="F344" s="9"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
@@ -11083,8 +11282,8 @@
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
-      <c r="E345" s="7"/>
-      <c r="F345" s="8"/>
+      <c r="E345" s="8"/>
+      <c r="F345" s="9"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
@@ -11111,8 +11310,8 @@
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
-      <c r="E346" s="7"/>
-      <c r="F346" s="8"/>
+      <c r="E346" s="8"/>
+      <c r="F346" s="9"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
@@ -11139,8 +11338,8 @@
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
-      <c r="E347" s="7"/>
-      <c r="F347" s="8"/>
+      <c r="E347" s="8"/>
+      <c r="F347" s="9"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
@@ -11167,8 +11366,8 @@
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
-      <c r="E348" s="7"/>
-      <c r="F348" s="8"/>
+      <c r="E348" s="8"/>
+      <c r="F348" s="9"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
@@ -11195,8 +11394,8 @@
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
-      <c r="E349" s="7"/>
-      <c r="F349" s="8"/>
+      <c r="E349" s="8"/>
+      <c r="F349" s="9"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
@@ -11223,8 +11422,8 @@
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
-      <c r="E350" s="7"/>
-      <c r="F350" s="8"/>
+      <c r="E350" s="8"/>
+      <c r="F350" s="9"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
@@ -11251,8 +11450,8 @@
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
-      <c r="E351" s="7"/>
-      <c r="F351" s="8"/>
+      <c r="E351" s="8"/>
+      <c r="F351" s="9"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
@@ -11279,8 +11478,8 @@
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
-      <c r="E352" s="7"/>
-      <c r="F352" s="8"/>
+      <c r="E352" s="8"/>
+      <c r="F352" s="9"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
@@ -11307,8 +11506,8 @@
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
-      <c r="E353" s="7"/>
-      <c r="F353" s="8"/>
+      <c r="E353" s="8"/>
+      <c r="F353" s="9"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
@@ -11335,8 +11534,8 @@
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
-      <c r="E354" s="7"/>
-      <c r="F354" s="8"/>
+      <c r="E354" s="8"/>
+      <c r="F354" s="9"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
@@ -11363,8 +11562,8 @@
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
-      <c r="E355" s="7"/>
-      <c r="F355" s="8"/>
+      <c r="E355" s="8"/>
+      <c r="F355" s="9"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
@@ -11391,8 +11590,8 @@
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
-      <c r="E356" s="7"/>
-      <c r="F356" s="8"/>
+      <c r="E356" s="8"/>
+      <c r="F356" s="9"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
@@ -11419,8 +11618,8 @@
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
-      <c r="E357" s="7"/>
-      <c r="F357" s="8"/>
+      <c r="E357" s="8"/>
+      <c r="F357" s="9"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
@@ -11447,8 +11646,8 @@
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
-      <c r="E358" s="7"/>
-      <c r="F358" s="8"/>
+      <c r="E358" s="8"/>
+      <c r="F358" s="9"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
@@ -11475,8 +11674,8 @@
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
-      <c r="E359" s="7"/>
-      <c r="F359" s="8"/>
+      <c r="E359" s="8"/>
+      <c r="F359" s="9"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
@@ -11503,8 +11702,8 @@
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
-      <c r="E360" s="7"/>
-      <c r="F360" s="8"/>
+      <c r="E360" s="8"/>
+      <c r="F360" s="9"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
@@ -11531,8 +11730,8 @@
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
-      <c r="E361" s="7"/>
-      <c r="F361" s="8"/>
+      <c r="E361" s="8"/>
+      <c r="F361" s="9"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
@@ -11559,8 +11758,8 @@
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
-      <c r="E362" s="7"/>
-      <c r="F362" s="8"/>
+      <c r="E362" s="8"/>
+      <c r="F362" s="9"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
@@ -11587,8 +11786,8 @@
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
-      <c r="E363" s="7"/>
-      <c r="F363" s="8"/>
+      <c r="E363" s="8"/>
+      <c r="F363" s="9"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
@@ -11615,8 +11814,8 @@
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
-      <c r="E364" s="7"/>
-      <c r="F364" s="8"/>
+      <c r="E364" s="8"/>
+      <c r="F364" s="9"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
@@ -11643,8 +11842,8 @@
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
-      <c r="E365" s="7"/>
-      <c r="F365" s="8"/>
+      <c r="E365" s="8"/>
+      <c r="F365" s="9"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
@@ -11671,8 +11870,8 @@
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
-      <c r="E366" s="7"/>
-      <c r="F366" s="8"/>
+      <c r="E366" s="8"/>
+      <c r="F366" s="9"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
@@ -11699,8 +11898,8 @@
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
-      <c r="E367" s="7"/>
-      <c r="F367" s="8"/>
+      <c r="E367" s="8"/>
+      <c r="F367" s="9"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
@@ -11727,8 +11926,8 @@
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
-      <c r="E368" s="7"/>
-      <c r="F368" s="8"/>
+      <c r="E368" s="8"/>
+      <c r="F368" s="9"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
@@ -11755,8 +11954,8 @@
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
-      <c r="E369" s="7"/>
-      <c r="F369" s="8"/>
+      <c r="E369" s="8"/>
+      <c r="F369" s="9"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
@@ -11783,8 +11982,8 @@
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
-      <c r="E370" s="7"/>
-      <c r="F370" s="8"/>
+      <c r="E370" s="8"/>
+      <c r="F370" s="9"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
@@ -11811,8 +12010,8 @@
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
-      <c r="E371" s="7"/>
-      <c r="F371" s="8"/>
+      <c r="E371" s="8"/>
+      <c r="F371" s="9"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
@@ -11839,8 +12038,8 @@
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
-      <c r="E372" s="7"/>
-      <c r="F372" s="8"/>
+      <c r="E372" s="8"/>
+      <c r="F372" s="9"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
@@ -11867,8 +12066,8 @@
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
-      <c r="E373" s="7"/>
-      <c r="F373" s="8"/>
+      <c r="E373" s="8"/>
+      <c r="F373" s="9"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
@@ -11895,8 +12094,8 @@
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
-      <c r="E374" s="7"/>
-      <c r="F374" s="8"/>
+      <c r="E374" s="8"/>
+      <c r="F374" s="9"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
@@ -11923,8 +12122,8 @@
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
-      <c r="E375" s="7"/>
-      <c r="F375" s="8"/>
+      <c r="E375" s="8"/>
+      <c r="F375" s="9"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
@@ -11951,8 +12150,8 @@
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
-      <c r="E376" s="7"/>
-      <c r="F376" s="8"/>
+      <c r="E376" s="8"/>
+      <c r="F376" s="9"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
@@ -11979,8 +12178,8 @@
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
-      <c r="E377" s="7"/>
-      <c r="F377" s="8"/>
+      <c r="E377" s="8"/>
+      <c r="F377" s="9"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
@@ -12007,8 +12206,8 @@
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
-      <c r="E378" s="7"/>
-      <c r="F378" s="8"/>
+      <c r="E378" s="8"/>
+      <c r="F378" s="9"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
@@ -12035,8 +12234,8 @@
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
-      <c r="E379" s="7"/>
-      <c r="F379" s="8"/>
+      <c r="E379" s="8"/>
+      <c r="F379" s="9"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
@@ -12063,8 +12262,8 @@
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
-      <c r="E380" s="7"/>
-      <c r="F380" s="8"/>
+      <c r="E380" s="8"/>
+      <c r="F380" s="9"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
@@ -12091,8 +12290,8 @@
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
-      <c r="E381" s="7"/>
-      <c r="F381" s="8"/>
+      <c r="E381" s="8"/>
+      <c r="F381" s="9"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
@@ -12119,8 +12318,8 @@
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
-      <c r="E382" s="7"/>
-      <c r="F382" s="8"/>
+      <c r="E382" s="8"/>
+      <c r="F382" s="9"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
@@ -12147,8 +12346,8 @@
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
-      <c r="E383" s="7"/>
-      <c r="F383" s="8"/>
+      <c r="E383" s="8"/>
+      <c r="F383" s="9"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
@@ -12175,8 +12374,8 @@
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
-      <c r="E384" s="7"/>
-      <c r="F384" s="8"/>
+      <c r="E384" s="8"/>
+      <c r="F384" s="9"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
@@ -12203,8 +12402,8 @@
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
-      <c r="E385" s="7"/>
-      <c r="F385" s="8"/>
+      <c r="E385" s="8"/>
+      <c r="F385" s="9"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
@@ -12231,8 +12430,8 @@
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
-      <c r="E386" s="7"/>
-      <c r="F386" s="8"/>
+      <c r="E386" s="8"/>
+      <c r="F386" s="9"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
@@ -12259,8 +12458,8 @@
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
-      <c r="E387" s="7"/>
-      <c r="F387" s="8"/>
+      <c r="E387" s="8"/>
+      <c r="F387" s="9"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
@@ -12287,8 +12486,8 @@
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
-      <c r="E388" s="7"/>
-      <c r="F388" s="8"/>
+      <c r="E388" s="8"/>
+      <c r="F388" s="9"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
@@ -12315,8 +12514,8 @@
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
-      <c r="E389" s="7"/>
-      <c r="F389" s="8"/>
+      <c r="E389" s="8"/>
+      <c r="F389" s="9"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
@@ -12343,8 +12542,8 @@
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
-      <c r="E390" s="7"/>
-      <c r="F390" s="8"/>
+      <c r="E390" s="8"/>
+      <c r="F390" s="9"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
@@ -12371,8 +12570,8 @@
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
-      <c r="E391" s="7"/>
-      <c r="F391" s="8"/>
+      <c r="E391" s="8"/>
+      <c r="F391" s="9"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
@@ -12399,8 +12598,8 @@
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
-      <c r="E392" s="7"/>
-      <c r="F392" s="8"/>
+      <c r="E392" s="8"/>
+      <c r="F392" s="9"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
@@ -12427,8 +12626,8 @@
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
-      <c r="E393" s="7"/>
-      <c r="F393" s="8"/>
+      <c r="E393" s="8"/>
+      <c r="F393" s="9"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
@@ -12455,8 +12654,8 @@
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
-      <c r="E394" s="7"/>
-      <c r="F394" s="8"/>
+      <c r="E394" s="8"/>
+      <c r="F394" s="9"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
@@ -12483,8 +12682,8 @@
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
-      <c r="E395" s="7"/>
-      <c r="F395" s="8"/>
+      <c r="E395" s="8"/>
+      <c r="F395" s="9"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
@@ -12511,8 +12710,8 @@
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
-      <c r="E396" s="7"/>
-      <c r="F396" s="8"/>
+      <c r="E396" s="8"/>
+      <c r="F396" s="9"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
@@ -12539,8 +12738,8 @@
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
-      <c r="E397" s="7"/>
-      <c r="F397" s="8"/>
+      <c r="E397" s="8"/>
+      <c r="F397" s="9"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
@@ -12567,8 +12766,8 @@
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
-      <c r="E398" s="7"/>
-      <c r="F398" s="8"/>
+      <c r="E398" s="8"/>
+      <c r="F398" s="9"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
@@ -12595,8 +12794,8 @@
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
-      <c r="E399" s="7"/>
-      <c r="F399" s="8"/>
+      <c r="E399" s="8"/>
+      <c r="F399" s="9"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
@@ -12623,8 +12822,8 @@
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
-      <c r="E400" s="7"/>
-      <c r="F400" s="8"/>
+      <c r="E400" s="8"/>
+      <c r="F400" s="9"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
@@ -12651,8 +12850,8 @@
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
-      <c r="E401" s="7"/>
-      <c r="F401" s="8"/>
+      <c r="E401" s="8"/>
+      <c r="F401" s="9"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
@@ -12679,8 +12878,8 @@
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
-      <c r="E402" s="7"/>
-      <c r="F402" s="8"/>
+      <c r="E402" s="8"/>
+      <c r="F402" s="9"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
@@ -12707,8 +12906,8 @@
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
-      <c r="E403" s="7"/>
-      <c r="F403" s="8"/>
+      <c r="E403" s="8"/>
+      <c r="F403" s="9"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
@@ -12735,8 +12934,8 @@
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
-      <c r="E404" s="7"/>
-      <c r="F404" s="8"/>
+      <c r="E404" s="8"/>
+      <c r="F404" s="9"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
@@ -12763,8 +12962,8 @@
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
-      <c r="E405" s="7"/>
-      <c r="F405" s="8"/>
+      <c r="E405" s="8"/>
+      <c r="F405" s="9"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
@@ -12791,8 +12990,8 @@
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
-      <c r="E406" s="7"/>
-      <c r="F406" s="8"/>
+      <c r="E406" s="8"/>
+      <c r="F406" s="9"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
@@ -12819,8 +13018,8 @@
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
-      <c r="E407" s="7"/>
-      <c r="F407" s="8"/>
+      <c r="E407" s="8"/>
+      <c r="F407" s="9"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
@@ -12847,8 +13046,8 @@
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
-      <c r="E408" s="7"/>
-      <c r="F408" s="8"/>
+      <c r="E408" s="8"/>
+      <c r="F408" s="9"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
@@ -12875,8 +13074,8 @@
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
-      <c r="E409" s="7"/>
-      <c r="F409" s="8"/>
+      <c r="E409" s="8"/>
+      <c r="F409" s="9"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
@@ -12903,8 +13102,8 @@
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
-      <c r="E410" s="7"/>
-      <c r="F410" s="8"/>
+      <c r="E410" s="8"/>
+      <c r="F410" s="9"/>
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
@@ -12931,8 +13130,8 @@
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
-      <c r="E411" s="7"/>
-      <c r="F411" s="8"/>
+      <c r="E411" s="8"/>
+      <c r="F411" s="9"/>
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
@@ -12959,8 +13158,8 @@
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
-      <c r="E412" s="7"/>
-      <c r="F412" s="8"/>
+      <c r="E412" s="8"/>
+      <c r="F412" s="9"/>
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
@@ -12987,8 +13186,8 @@
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
-      <c r="E413" s="7"/>
-      <c r="F413" s="8"/>
+      <c r="E413" s="8"/>
+      <c r="F413" s="9"/>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
@@ -13015,8 +13214,8 @@
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
-      <c r="E414" s="7"/>
-      <c r="F414" s="8"/>
+      <c r="E414" s="8"/>
+      <c r="F414" s="9"/>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
@@ -13043,8 +13242,8 @@
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
-      <c r="E415" s="7"/>
-      <c r="F415" s="8"/>
+      <c r="E415" s="8"/>
+      <c r="F415" s="9"/>
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
@@ -13071,8 +13270,8 @@
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
-      <c r="E416" s="7"/>
-      <c r="F416" s="8"/>
+      <c r="E416" s="8"/>
+      <c r="F416" s="9"/>
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
@@ -13099,8 +13298,8 @@
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
-      <c r="E417" s="7"/>
-      <c r="F417" s="8"/>
+      <c r="E417" s="8"/>
+      <c r="F417" s="9"/>
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
@@ -13127,8 +13326,8 @@
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
-      <c r="E418" s="7"/>
-      <c r="F418" s="8"/>
+      <c r="E418" s="8"/>
+      <c r="F418" s="9"/>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
@@ -13155,8 +13354,8 @@
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
-      <c r="E419" s="7"/>
-      <c r="F419" s="8"/>
+      <c r="E419" s="8"/>
+      <c r="F419" s="9"/>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
@@ -13183,8 +13382,8 @@
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
-      <c r="E420" s="7"/>
-      <c r="F420" s="8"/>
+      <c r="E420" s="8"/>
+      <c r="F420" s="9"/>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
@@ -13211,8 +13410,8 @@
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
-      <c r="E421" s="7"/>
-      <c r="F421" s="8"/>
+      <c r="E421" s="8"/>
+      <c r="F421" s="9"/>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
@@ -13239,8 +13438,8 @@
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
-      <c r="E422" s="7"/>
-      <c r="F422" s="8"/>
+      <c r="E422" s="8"/>
+      <c r="F422" s="9"/>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
@@ -13267,8 +13466,8 @@
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
-      <c r="E423" s="7"/>
-      <c r="F423" s="8"/>
+      <c r="E423" s="8"/>
+      <c r="F423" s="9"/>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
@@ -29448,329 +29647,89 @@
     </row>
   </sheetData>
   <mergeCells count="430">
-    <mergeCell ref="E329:F329"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="E331:F331"/>
-    <mergeCell ref="E332:F332"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="E334:F334"/>
-    <mergeCell ref="E335:F335"/>
-    <mergeCell ref="E336:F336"/>
-    <mergeCell ref="E320:F320"/>
-    <mergeCell ref="E321:F321"/>
-    <mergeCell ref="E322:F322"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="E324:F324"/>
-    <mergeCell ref="E325:F325"/>
-    <mergeCell ref="E326:F326"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="E328:F328"/>
-    <mergeCell ref="E311:F311"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="E313:F313"/>
-    <mergeCell ref="E314:F314"/>
-    <mergeCell ref="E315:F315"/>
-    <mergeCell ref="E316:F316"/>
-    <mergeCell ref="E317:F317"/>
-    <mergeCell ref="E318:F318"/>
-    <mergeCell ref="E319:F319"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="E304:F304"/>
-    <mergeCell ref="E305:F305"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="E307:F307"/>
-    <mergeCell ref="E308:F308"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="E310:F310"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="E296:F296"/>
-    <mergeCell ref="E297:F297"/>
-    <mergeCell ref="E298:F298"/>
-    <mergeCell ref="E299:F299"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="E301:F301"/>
-    <mergeCell ref="E284:F284"/>
-    <mergeCell ref="E285:F285"/>
-    <mergeCell ref="E286:F286"/>
-    <mergeCell ref="E287:F287"/>
-    <mergeCell ref="E288:F288"/>
-    <mergeCell ref="E289:F289"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="E291:F291"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="E275:F275"/>
-    <mergeCell ref="E276:F276"/>
-    <mergeCell ref="E277:F277"/>
-    <mergeCell ref="E278:F278"/>
-    <mergeCell ref="E279:F279"/>
-    <mergeCell ref="E280:F280"/>
-    <mergeCell ref="E281:F281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="E283:F283"/>
-    <mergeCell ref="E266:F266"/>
-    <mergeCell ref="E267:F267"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="E270:F270"/>
-    <mergeCell ref="E271:F271"/>
-    <mergeCell ref="E272:F272"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="E274:F274"/>
-    <mergeCell ref="E257:F257"/>
-    <mergeCell ref="E258:F258"/>
-    <mergeCell ref="E259:F259"/>
-    <mergeCell ref="E260:F260"/>
-    <mergeCell ref="E261:F261"/>
-    <mergeCell ref="E262:F262"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="E264:F264"/>
-    <mergeCell ref="E265:F265"/>
-    <mergeCell ref="E248:F248"/>
-    <mergeCell ref="E249:F249"/>
-    <mergeCell ref="E250:F250"/>
-    <mergeCell ref="E251:F251"/>
-    <mergeCell ref="E252:F252"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="E254:F254"/>
-    <mergeCell ref="E255:F255"/>
-    <mergeCell ref="E256:F256"/>
-    <mergeCell ref="E239:F239"/>
-    <mergeCell ref="E240:F240"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="E242:F242"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="E245:F245"/>
-    <mergeCell ref="E246:F246"/>
-    <mergeCell ref="E247:F247"/>
-    <mergeCell ref="E230:F230"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="E234:F234"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="E237:F237"/>
-    <mergeCell ref="E238:F238"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="E227:F227"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E386:F386"/>
+    <mergeCell ref="E387:F387"/>
+    <mergeCell ref="E388:F388"/>
+    <mergeCell ref="E389:F389"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="E391:F391"/>
+    <mergeCell ref="E392:F392"/>
+    <mergeCell ref="E393:F393"/>
+    <mergeCell ref="E394:F394"/>
+    <mergeCell ref="E395:F395"/>
+    <mergeCell ref="E396:F396"/>
+    <mergeCell ref="E397:F397"/>
+    <mergeCell ref="E398:F398"/>
+    <mergeCell ref="E399:F399"/>
+    <mergeCell ref="E400:F400"/>
+    <mergeCell ref="E401:F401"/>
+    <mergeCell ref="E402:F402"/>
+    <mergeCell ref="E403:F403"/>
+    <mergeCell ref="E404:F404"/>
+    <mergeCell ref="E405:F405"/>
+    <mergeCell ref="E406:F406"/>
+    <mergeCell ref="E407:F407"/>
+    <mergeCell ref="E408:F408"/>
+    <mergeCell ref="E409:F409"/>
+    <mergeCell ref="E410:F410"/>
+    <mergeCell ref="E411:F411"/>
+    <mergeCell ref="E412:F412"/>
+    <mergeCell ref="E413:F413"/>
+    <mergeCell ref="E421:F421"/>
+    <mergeCell ref="E422:F422"/>
+    <mergeCell ref="E423:F423"/>
+    <mergeCell ref="E414:F414"/>
+    <mergeCell ref="E415:F415"/>
+    <mergeCell ref="E416:F416"/>
+    <mergeCell ref="E417:F417"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="E419:F419"/>
+    <mergeCell ref="E420:F420"/>
+    <mergeCell ref="E337:F337"/>
+    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="E339:F339"/>
+    <mergeCell ref="E340:F340"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="E347:F347"/>
+    <mergeCell ref="E348:F348"/>
+    <mergeCell ref="E349:F349"/>
+    <mergeCell ref="E350:F350"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="E352:F352"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="E354:F354"/>
+    <mergeCell ref="E355:F355"/>
+    <mergeCell ref="E356:F356"/>
+    <mergeCell ref="E357:F357"/>
+    <mergeCell ref="E358:F358"/>
+    <mergeCell ref="E359:F359"/>
+    <mergeCell ref="E360:F360"/>
+    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="E362:F362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="E364:F364"/>
+    <mergeCell ref="E365:F365"/>
+    <mergeCell ref="E366:F366"/>
+    <mergeCell ref="E367:F367"/>
+    <mergeCell ref="E368:F368"/>
+    <mergeCell ref="E369:F369"/>
+    <mergeCell ref="E370:F370"/>
+    <mergeCell ref="E371:F371"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="E373:F373"/>
+    <mergeCell ref="E374:F374"/>
+    <mergeCell ref="E375:F375"/>
+    <mergeCell ref="E376:F376"/>
+    <mergeCell ref="E377:F377"/>
+    <mergeCell ref="E378:F378"/>
+    <mergeCell ref="E379:F379"/>
+    <mergeCell ref="E380:F380"/>
+    <mergeCell ref="E381:F381"/>
     <mergeCell ref="E382:F382"/>
     <mergeCell ref="E383:F383"/>
     <mergeCell ref="E384:F384"/>
@@ -29795,89 +29754,329 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E373:F373"/>
-    <mergeCell ref="E374:F374"/>
-    <mergeCell ref="E375:F375"/>
-    <mergeCell ref="E376:F376"/>
-    <mergeCell ref="E377:F377"/>
-    <mergeCell ref="E378:F378"/>
-    <mergeCell ref="E379:F379"/>
-    <mergeCell ref="E380:F380"/>
-    <mergeCell ref="E381:F381"/>
-    <mergeCell ref="E364:F364"/>
-    <mergeCell ref="E365:F365"/>
-    <mergeCell ref="E366:F366"/>
-    <mergeCell ref="E367:F367"/>
-    <mergeCell ref="E368:F368"/>
-    <mergeCell ref="E369:F369"/>
-    <mergeCell ref="E370:F370"/>
-    <mergeCell ref="E371:F371"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="E355:F355"/>
-    <mergeCell ref="E356:F356"/>
-    <mergeCell ref="E357:F357"/>
-    <mergeCell ref="E358:F358"/>
-    <mergeCell ref="E359:F359"/>
-    <mergeCell ref="E360:F360"/>
-    <mergeCell ref="E361:F361"/>
-    <mergeCell ref="E362:F362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="E346:F346"/>
-    <mergeCell ref="E347:F347"/>
-    <mergeCell ref="E348:F348"/>
-    <mergeCell ref="E349:F349"/>
-    <mergeCell ref="E350:F350"/>
-    <mergeCell ref="E351:F351"/>
-    <mergeCell ref="E352:F352"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="E354:F354"/>
-    <mergeCell ref="E337:F337"/>
-    <mergeCell ref="E338:F338"/>
-    <mergeCell ref="E339:F339"/>
-    <mergeCell ref="E340:F340"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="E344:F344"/>
-    <mergeCell ref="E345:F345"/>
-    <mergeCell ref="E413:F413"/>
-    <mergeCell ref="E421:F421"/>
-    <mergeCell ref="E422:F422"/>
-    <mergeCell ref="E423:F423"/>
-    <mergeCell ref="E414:F414"/>
-    <mergeCell ref="E415:F415"/>
-    <mergeCell ref="E416:F416"/>
-    <mergeCell ref="E417:F417"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="E419:F419"/>
-    <mergeCell ref="E420:F420"/>
-    <mergeCell ref="E404:F404"/>
-    <mergeCell ref="E405:F405"/>
-    <mergeCell ref="E406:F406"/>
-    <mergeCell ref="E407:F407"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="E409:F409"/>
-    <mergeCell ref="E410:F410"/>
-    <mergeCell ref="E411:F411"/>
-    <mergeCell ref="E412:F412"/>
-    <mergeCell ref="E395:F395"/>
-    <mergeCell ref="E396:F396"/>
-    <mergeCell ref="E397:F397"/>
-    <mergeCell ref="E398:F398"/>
-    <mergeCell ref="E399:F399"/>
-    <mergeCell ref="E400:F400"/>
-    <mergeCell ref="E401:F401"/>
-    <mergeCell ref="E402:F402"/>
-    <mergeCell ref="E403:F403"/>
-    <mergeCell ref="E386:F386"/>
-    <mergeCell ref="E387:F387"/>
-    <mergeCell ref="E388:F388"/>
-    <mergeCell ref="E389:F389"/>
-    <mergeCell ref="E390:F390"/>
-    <mergeCell ref="E391:F391"/>
-    <mergeCell ref="E392:F392"/>
-    <mergeCell ref="E393:F393"/>
-    <mergeCell ref="E394:F394"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="E230:F230"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="E234:F234"/>
+    <mergeCell ref="E235:F235"/>
+    <mergeCell ref="E236:F236"/>
+    <mergeCell ref="E237:F237"/>
+    <mergeCell ref="E238:F238"/>
+    <mergeCell ref="E239:F239"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="E242:F242"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="E244:F244"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="E246:F246"/>
+    <mergeCell ref="E247:F247"/>
+    <mergeCell ref="E248:F248"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="E250:F250"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="E252:F252"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="E254:F254"/>
+    <mergeCell ref="E255:F255"/>
+    <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="E265:F265"/>
+    <mergeCell ref="E266:F266"/>
+    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="E270:F270"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="E272:F272"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="E274:F274"/>
+    <mergeCell ref="E275:F275"/>
+    <mergeCell ref="E276:F276"/>
+    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="E278:F278"/>
+    <mergeCell ref="E279:F279"/>
+    <mergeCell ref="E280:F280"/>
+    <mergeCell ref="E281:F281"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="E283:F283"/>
+    <mergeCell ref="E284:F284"/>
+    <mergeCell ref="E285:F285"/>
+    <mergeCell ref="E286:F286"/>
+    <mergeCell ref="E287:F287"/>
+    <mergeCell ref="E288:F288"/>
+    <mergeCell ref="E289:F289"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="E291:F291"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="E298:F298"/>
+    <mergeCell ref="E299:F299"/>
+    <mergeCell ref="E300:F300"/>
+    <mergeCell ref="E301:F301"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="E303:F303"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="E305:F305"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="E311:F311"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="E313:F313"/>
+    <mergeCell ref="E314:F314"/>
+    <mergeCell ref="E315:F315"/>
+    <mergeCell ref="E316:F316"/>
+    <mergeCell ref="E317:F317"/>
+    <mergeCell ref="E318:F318"/>
+    <mergeCell ref="E319:F319"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="E331:F331"/>
+    <mergeCell ref="E332:F332"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="E334:F334"/>
+    <mergeCell ref="E335:F335"/>
+    <mergeCell ref="E336:F336"/>
+    <mergeCell ref="E320:F320"/>
+    <mergeCell ref="E321:F321"/>
+    <mergeCell ref="E322:F322"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="E324:F324"/>
+    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="E326:F326"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="E328:F328"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
